--- a/Audio_Transcription.xlsx
+++ b/Audio_Transcription.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>transcribe</t>
-  </si>
-  <si>
-    <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
-  </si>
-  <si>
-    <t>c0fec98f-91de-4349-b21d-25dc05f55eaf_0_r.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> � pivot यlav यदकतिम वोए वोडूथ नहम्यताomp यदकगं सार नह में सय overboard एक य मैंनगके -"3 Insife". ग ग ग गौफle time , 47-24 month ke sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes, yes. In English, okay, final. I'm actually a dark skyward dancer, Hotsolampir, an abomba 27th audio aware of it now. Yes. It was told by him by his teacher. Yes, but so congratulations from that he's been qualified for the next level, National quarter finals. Okay. Which will be on January 3rd, Visma. January 3rd. Yes, yes. January 3rd week. Third week. Okay. Yes, yes. So January 3rd week. Have you received the report card and certificate? Regarding your change, all of you. Is it being needed? One second, ma'am. So one second, I'll let you. Yeah, ma'am. So ma'am, they have shared through the mail ma'am. Have you checked it? I think I have checked it. Yes, ma'am. One second. This will be your mail ID. Ma'am, go L3D28 at the rate of email.com. Yes. Yes, ma'am. Yes, ma'am. Actually, we have shared now, ma'am. Not a problem. I'll be sharing through your whatsapp number also after this call. Okay. Some how was the exam and actual how was the experience of the exam? Actually, he did it himself only. And later we had a discussion. He said that some of the sums like this took time to solve. Otherwise, he was okay. Yes, ma'am. So ma'am, actually, I'll be transferring to the academic counselor. So he will be explaining you clearly now. One second. Okay. Oh no. Oh, what? So, what's the last year? Yes, ma'am. What's the academic counselor? Ranji. Yes. I'll talk about this one. Okay. Okay, sir. Ranji. Yes, children. There is an exam in the online. I'm asking about this regarding the idea. Ranji, what's the lump here? Yes. Yes, ma'am. What's the number? It's 37th of the number. Ranji. So, I know. In case details are available on the mail. I mean, the score card and certificate. I have seen. Okay. So, first of all, I will tell you the congratulations. That's going to be the last one. I have a final round. Yes. I was talking to Arlea. You said quarter final. Sorry. The person who was talking to me earlier. He said that quarter final. Yes. I'm sorry. The person who was talking to me earlier. He said that quarter final. He said that quarter final. Yes. No, ma'am. I'm sorry for incriminating. The organization is new. So, the final round of the child. The number of the child is 2. The first one is the pre-lens date. The final round of the child. Yes. The pre-lens date. The final round of the child. This is February 2nd week. I will bring you back to the next exam. February 2nd week. Yes. So, before one. January 3rd week. Sorry, ma'am. Nothing. You want to be in the field. Yes. So, after two months, I will bring you back to the next exam. It will be the same on the next exam. But, I will bring you back to the next exam. Okay. Pattern will be same or more. Question. Yes. Yes, ma'am. This is a little bit changes. This is completely national wide exams. So, regarding this. Okay. Now, what is the call? Yes. Before the examination, some children will provide a training session. For two months. Okay. Yes. This is also the same. You will be in the online Google Meet. Children will conduct a program. Yes. Yes. It is a HVDS, Higher, Order, Thinking, Skills. Okay. What? Right. Yes. So, ma'am, this is the class structure. It will be weekly twice. And complete. In two months, you will have 16 classes covered. Before examinations. Okay. So, the online structure, ma'am, this is a very comfortable child. This is just weekly class. You can join them in the weekend. And, we can do it. The timing slots are available in our class. Morning, dinner, cup to seven, we will have a time available. The class duration of the day, ma'am, is one level. Forty-five minutes to one level, the class duration is the same. You can also refer them to evening slots. Ma'am, we have a time available for four to five, five to six and six to seven. Okay. Yes. You will have two months of classes. And the best thing is, ma'am, before the classes start, we will conduct a level mapping test. So, we will have more clarity. We need more guidance in which. Ma'am, any child is at an understanding level. Ma'am, there is a mathematics. So, based on the number of the level mapping test, after that, after their classes, Ma'am. Yes. Okay. This is a complete two-minute course. Yes. After that, if you will be interested in the programs, you can continue for other module. Okay. Yes. So, this module will be chargeable, because all the materials in this, all the works will be used. They will provide our teachers. And on and on, it means that you will not be able to get more. Ma'am, only four to six children, we will prepare a batch. Ma'am, they will provide a certified personal teacher. Yes. The children will be comfortable with each other. Okay. Yes. Ma'am, you will go to the weekend, you will go to the weekend. We can stay in the weekend. Yes. Yes. Ma'am, the parents will be able to prepare the weekend. You have to have some time. Yes. If we can stay in the weekend, then it is not an issue. It is free now. Otherwise, we can have some games. Okay. We have lots of things to do. Yes. Ma'am, you are doing a time slot and we have a phone in the weekdays. Yes. We will connect all the classes today. Okay. Ma'am, you will start your classes from Monday. You will start your training formalities, you will have to mail to Ma'am or your WhatsApp report. Yes. It is a mail. First of all, it is a thing that we have got here. Yes sir. This is the free structure. We will charge it basically. It is 5000 years. But it is 5000 years. Yes. It will be GST. But it is a selection of the past dawn in the Olympic. So this is already eligible for scholarship. So we will charge it more. It is basically, we want to pay it. For two months of the complete class, it will be Ma'am 2000, 600 rupees. Okay. For two months of the complete class, plus the work sheets of the Jubis, we will provide the teachers of the children. Yes. It will be in the PDF form. Yes. I am so sorry Ma'am. What are you saying? We will provide the PDF. We will provide the sheets of the work sheets. Yes. Ma'am, we will provide the children in the online. The students of the Olympic Games, they will design the syllabus and provide the students of the level. Okay. Yes. I will confirm your main course. This is the G.O.Y.A.L.T.R.I. T.I.28 at G.M.L.. Right? Right. Yes. So you have to send all the details right now. Which one of you have made? It is weekly twice. It is weekly. It is weekly. Actually, the action going to school when he will come back. I will do it later. So, I will do it later. Otherwise, there is no problem in the weekly. In the evening, I will like 6 to 7. I will do it later. If we do it, I will be able to discuss it with my dad. Sure. Ma'am, please discuss it. Okay. I will send all the details on your mail. Before any 5.3, Ma'am, please give me the internet. Okay? Yes. I will give you the heart's key. The heart's key is not the heart's key. don't be commissive. Right. We will also be able to select this message. Yes, please correct. I am unable to select. Are we able to select? Which is the key? Alright. Otherwise, Oh God! I will ask all right. Anyway, I will comments in this letter with my concrete work. I want to write it out to you. Thank you for the microphone. I will do it there. The grad Armenian coding vaccine is involved in dialogue reversal. You can focus on this program once you get to the registration language. As poetry does not violent in the election. eastern brightness? It provokes especially against anti-opecology Sungish PM from today on. And legs of one minute will be destroyed by war. centered on theny or sub wszystko mi שמ� Ka. The question will be responding to men lolupbeat lightly. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,38 +420,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>transcribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> � pivot यlav यदकतिम वोए वोडूथ नहम्यताomp यदकगं सार नह में सय overboard एक य मैंनगके -"3 Insife". ग ग ग गौफle time , 47-24 month ke sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c0fec98f-91de-4349-b21d-25dc05f55eaf_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yes, yes. In English, okay, final. I'm actually a dark skyward dancer, Hotsolampir, an abomba 27th audio aware of it now. Yes. It was told by him by his teacher. Yes, but so congratulations from that he's been qualified for the next level, National quarter finals. Okay. Which will be on January 3rd, Visma. January 3rd. Yes, yes. January 3rd week. Third week. Okay. Yes, yes. So January 3rd week. Have you received the report card and certificate? Regarding your change, all of you. Is it being needed? One second, ma'am. So one second, I'll let you. Yeah, ma'am. So ma'am, they have shared through the mail ma'am. Have you checked it? I think I have checked it. Yes, ma'am. One second. This will be your mail ID. Ma'am, go L3D28 at the rate of email.com. Yes. Yes, ma'am. Yes, ma'am. Actually, we have shared now, ma'am. Not a problem. I'll be sharing through your whatsapp number also after this call. Okay. Some how was the exam and actual how was the experience of the exam? Actually, he did it himself only. And later we had a discussion. He said that some of the sums like this took time to solve. Otherwise, he was okay. Yes, ma'am. So ma'am, actually, I'll be transferring to the academic counselor. So he will be explaining you clearly now. One second. Okay. Oh no. Oh, what? So, what's the last year? Yes, ma'am. What's the academic counselor? Ranji. Yes. I'll talk about this one. Okay. Okay, sir. Ranji. Yes, children. There is an exam in the online. I'm asking about this regarding the idea. Ranji, what's the lump here? Yes. Yes, ma'am. What's the number? It's 37th of the number. Ranji. So, I know. In case details are available on the mail. I mean, the score card and certificate. I have seen. Okay. So, first of all, I will tell you the congratulations. That's going to be the last one. I have a final round. Yes. I was talking to Arlea. You said quarter final. Sorry. The person who was talking to me earlier. He said that quarter final. Yes. I'm sorry. The person who was talking to me earlier. He said that quarter final. He said that quarter final. Yes. No, ma'am. I'm sorry for incriminating. The organization is new. So, the final round of the child. The number of the child is 2. The first one is the pre-lens date. The final round of the child. Yes. The pre-lens date. The final round of the child. This is February 2nd week. I will bring you back to the next exam. February 2nd week. Yes. So, before one. January 3rd week. Sorry, ma'am. Nothing. You want to be in the field. Yes. So, after two months, I will bring you back to the next exam. It will be the same on the next exam. But, I will bring you back to the next exam. Okay. Pattern will be same or more. Question. Yes. Yes, ma'am. This is a little bit changes. This is completely national wide exams. So, regarding this. Okay. Now, what is the call? Yes. Before the examination, some children will provide a training session. For two months. Okay. Yes. This is also the same. You will be in the online Google Meet. Children will conduct a program. Yes. Yes. It is a HVDS, Higher, Order, Thinking, Skills. Okay. What? Right. Yes. So, ma'am, this is the class structure. It will be weekly twice. And complete. In two months, you will have 16 classes covered. Before examinations. Okay. So, the online structure, ma'am, this is a very comfortable child. This is just weekly class. You can join them in the weekend. And, we can do it. The timing slots are available in our class. Morning, dinner, cup to seven, we will have a time available. The class duration of the day, ma'am, is one level. Forty-five minutes to one level, the class duration is the same. You can also refer them to evening slots. Ma'am, we have a time available for four to five, five to six and six to seven. Okay. Yes. You will have two months of classes. And the best thing is, ma'am, before the classes start, we will conduct a level mapping test. So, we will have more clarity. We need more guidance in which. Ma'am, any child is at an understanding level. Ma'am, there is a mathematics. So, based on the number of the level mapping test, after that, after their classes, Ma'am. Yes. Okay. This is a complete two-minute course. Yes. After that, if you will be interested in the programs, you can continue for other module. Okay. Yes. So, this module will be chargeable, because all the materials in this, all the works will be used. They will provide our teachers. And on and on, it means that you will not be able to get more. Ma'am, only four to six children, we will prepare a batch. Ma'am, they will provide a certified personal teacher. Yes. The children will be comfortable with each other. Okay. Yes. Ma'am, you will go to the weekend, you will go to the weekend. We can stay in the weekend. Yes. Yes. Ma'am, the parents will be able to prepare the weekend. You have to have some time. Yes. If we can stay in the weekend, then it is not an issue. It is free now. Otherwise, we can have some games. Okay. We have lots of things to do. Yes. Ma'am, you are doing a time slot and we have a phone in the weekdays. Yes. We will connect all the classes today. Okay. Ma'am, you will start your classes from Monday. You will start your training formalities, you will have to mail to Ma'am or your WhatsApp report. Yes. It is a mail. First of all, it is a thing that we have got here. Yes sir. This is the free structure. We will charge it basically. It is 5000 years. But it is 5000 years. Yes. It will be GST. But it is a selection of the past dawn in the Olympic. So this is already eligible for scholarship. So we will charge it more. It is basically, we want to pay it. For two months of the complete class, it will be Ma'am 2000, 600 rupees. Okay. For two months of the complete class, plus the work sheets of the Jubis, we will provide the teachers of the children. Yes. It will be in the PDF form. Yes. I am so sorry Ma'am. What are you saying? We will provide the PDF. We will provide the sheets of the work sheets. Yes. Ma'am, we will provide the children in the online. The students of the Olympic Games, they will design the syllabus and provide the students of the level. Okay. Yes. I will confirm your main course. This is the G.O.Y.A.L.T.R.I. T.I.28 at G.M.L.. Right? Right. Yes. So you have to send all the details right now. Which one of you have made? It is weekly twice. It is weekly. It is weekly. Actually, the action going to school when he will come back. I will do it later. So, I will do it later. Otherwise, there is no problem in the weekly. In the evening, I will like 6 to 7. I will do it later. If we do it, I will be able to discuss it with my dad. Sure. Ma'am, please discuss it. Okay. I will send all the details on your mail. Before any 5.3, Ma'am, please give me the internet. Okay? Yes. I will give you the heart's key. The heart's key is not the heart's key. don't be commissive. Right. We will also be able to select this message. Yes, please correct. I am unable to select. Are we able to select? Which is the key? Alright. Otherwise, Oh God! I will ask all right. Anyway, I will comments in this letter with my concrete work. I want to write it out to you. Thank you for the microphone. I will do it there. The grad Armenian coding vaccine is involved in dialogue reversal. You can focus on this program once you get to the registration language. As poetry does not violent in the election. eastern brightness? It provokes especially against anti-opecology Sungish PM from today on. And legs of one minute will be destroyed by war. centered on theny or sub wszystko mi שמ� Ka. The question will be responding to men lolupbeat lightly. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes. Yes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I like having the people raise my hands and I do frequency connections showing needs My first interpersonal connection with the Hello. Hello. How's our fatta intend, hi, this is really interesting. What's up, Here? My name is Hi. Hi! We're here Hi. Hi guys. Hi. Come back later, you see. The timer Rossia about to turn on the traffic junk to get into delivery. This flight is theрахave an antenna to get up. Uh-huh. Okay. You have already met me already. You are going to be a man. No, no, no, no, no. I told you I'm a man. I was taken. I did not go there. Okay, okay. I'm not going to shoot. You see, I'm sharing. You see, you've got a lot of numbers. You could be like 40 right. Okay, okay. Yeah. So, I think I've got a lot of common little national election you can't prove it. You can't do it. So, that can be on the online list. Yeah. Yeah, that can be on the online list. And you can add in some form. So, you're a smart. So, uh, yeah, I'm interested to call the second round national election. Right? Yeah. So, I choose her here. Uh, the second round, then we need to be in the middle and uh, I'll stand by and then we'll be like, the post-censor layer. It's like, the third round, the example here, preliminary round, post-censor. Okay. So, there's a few things here. Uh, before that, for that, uh, how the question is that coming, how they are going to answer that post-censor like that. And so, two months class elections here will be deployed to the next round. So, that will also online class for the big two days class of here, providing. So, uh, like, the one that you got, uh, big two days. Big two days. So, uh, actually, uh, Monday to Sunday, trainers are available sorry, in big two days you can choose. two months, I choose in, uh, packet as I'm doing this. So, like that, if you are, okay. And also, so, here, I choose for defining issues the class duration thing. And for defining the class, uh, section, uh, so you can take any four defining. So, uh, there are some, uh, I'm not sure if you know that taking, uh, even in back, just like a fight to fight for deep fight back, just a few seconds. Like that. So, basically here, actually, there has been, uh, doing the same thing. So, we all know that, uh, students are by fighting the thing. They are outnumbering. Like, really, we are here. We are helping the students how to understand the questions we told about our working or we told to have them ready. So, how they learn to understand the question on how they can answer it. Like that. Okay. Okay. So, uh, the second question is, uh, having a doubt. So, uh, this, this program is, uh, and complemently, uh, are there some charges in it? Okay, so, uh, the class is based on the YouTube, uh, so, uh, while you are doing that in session routine, you can do a, uh, 25-month-olds, 24-day-in-date human class section. for the piece for the human class, we have two months class section for 22-day-in-date class section. Okay. Okay. So, uh, I will share the answer the decision on the whole, uh, uh, you are going to report this round. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Any queries on how everything you've played? Um, I think for now, you just send me a little bit of both of it. Okay. Okay. Okay. Okay. Thank you so much. Thank you. I see a big one. I hope you just come later. It's just because two months time already. Okay. So, it will take only two months. It will take four years session only two minutes to take. So, just take it from only two minutes. Okay. So, anyway, I'll share the only answer. So, I just go through that and let me know. Okay. Okay. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>live such to times address you media Word language air For local Okay Sorry The What the visibility losraphic yeah In кан Attendant seni Tool yeah Oh so So basically here before that exam, I think we are giving 200 class collections for the class. The how the questions are coming, how they are going to answer the questions like that and so 200 class collections, we are going to provide the correct answers. So that we want to online class for the BP today's class of the year, providing. So like the Monday, the VK2 days, VK2 days, we get to read, we get to read, we get to read. So actually Monday to Sunday, Friday, Saturday, Wednesday, we get to read, we get to read from Thursday to Wednesday to Friday, Saturday, Saturday. So like that is your okay. And also, so here I see for defining issues the class duration thing and for defining this class duration, they're also like morning 8 of the full evening 8 of the club, sections are there so you can take any full defines. So there also, I'm also taking them to a taking, even in practice, even in practice, like a fight to fight for, fight back to sections. Like that. But basically here actually there are things that are doing good there, I, 11 and also thinking about the things that we all know that the students are by fighting the things that are not the money thing. But actually there here we are, the things that students have to understand the questions, we thought about having already thought to have them ready. So how they understand the question on how they can answer it. Like that, they are teaching the students in class. This is still alive, as the sections are going on. Like guys. Okay, okay. So I'm sorry that was a little bit, I saw it in the house. So this program is, and complimenting or are there some charges in it. I can even say, it's a classic page class or YouTube, so you can do it with a class piece. So while you are doing that, it's just a routine, you can do a page that is there among those two, that's what it's for, the end date, human class section. Okay, complimenting for your comments, and complimenting for your comments, class sections for 2000 pages, the end date, class section. Okay, okay. So I answer the, I answer the decision on the one, so you are going to report cards, practicating on the two, and the program will show on the side of the the, you know, watch the number. So you can get this to the, the decision, like this, and then you have your new, you know, watch the, so the, the decision, you will be active. After, you can just keep going, so you can be going, so, because, you need to fill up some, uh, basic information about that, like, like, I said, which I, which I, which I, did, uh, get like that. So after the decision, you can, uh, the share with the screenshot, and also they go for the, and so I, uh, then the admission from, uh, in the system. But tomorrow, we, uh, tomorrow, you look at the course from admission, do you show you can, do the any, you have to see, if it's, then you want the class section, and, uh, the letter. Okay. Okay. So you have any queries, how you have everything you have to hear? Um, I think for now, you, uh, send me a little bit, uh, go through it. Okay. Okay. Okay. Okay. Okay. So, okay. Thank you, sir. Thank you. I see it before. I hope you just come later. It's just, you know, because two months time, or you need to start the class section. So, I, I, I, I, I'm so, really. Okay. So, if you will take, if you will take only two minutes, uh, it will take four sessions, only two minutes, if you will take, uh, so just, uh, take it from, only two minutes, okay. So anyway, I'll share the only answer. So I just go through that and, uh, let me know. Okay. Okay. Okay. Thank you. Have a nice day. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, leave them with me up here now.ünden f Hi. I get me at a job shoot, there you are.UT Start modeling. Disockey floor. Can you be my director or director? Can you mention? Are we going to do it? Going forward?nínu arque m membrna xlioe jabt. I am very happy to see you again. Yes, I am very happy to see you again. Yes, I am very happy to see you again. You have already met me already. You are going to be a man. Yes, I have taken it. I have been using it for a long time. I have been sharing it with you a lot of times. I have been sharing it with you a lot of times. Yes, so I have been sharing it with you a lot of times. Yes, I have been sharing it with you a lot of times. Yes, I have been sharing it with you a lot of times. Yes. Yes, so I have checked here. The second round, we have been using it on the other end. We have checked here, we have checked here. The second round, we have been using it on the other end. So basically, here, before that exam, we are giving 200 class collections for the class. The whole question is coming out there, one door, and the other door is like that. So, 200 class collections, we are going to provide the correct answer. So, that amounts of online class for the BP, 2 days class of the year, providing. So, like a Monday or Monday? Work 2 days or 때 classes, we keep do way out. Yes, we keep do day so. So, we can actually warn the class that a lot of people are mulling to day classes, of most thing we do not teach the class during our classes and didn't. So, like that is if you are okay. And on social here, I teach for defining issues the class duration thing. And for defining the class duration, they're also like morning eight of group, evening eight of group, sections are there. So, you can take any four defines. So, there are some, I'm not taking them that taking evening classes, like a fight or a fight or a fight or a fight or a section. Like that. So, basically here actually there are things that are doing good there, I, Q 11 and also thinking about the things that we are not that are, children are by fighting the things that are not normal things. But actually there here we are, and things that children are too to understand the questions, we thought about a fight or we thought to have a memory. So, how they understand the question on how they can answer it. Like that, they are teaching the children's in class. This is still our life, our sections are going on. Like that. Okay, okay. So, I'm sorry that was a little bit, I saw a little doubt. So, this program is, and complimenting, or are there some charges in it. I can tell you, it's a classic page class, or YouTube, 2000, or 50, a class, YouTube. So, while you are doing that, it's just a routine, you can do page, it's a month, or two, or so, 24, then get to a month class section. Okay, so, I have a little bit of a compliment, and a two month class section, for 2000, you can say, a 20-day class section. Okay, okay. So, I will share the answer that is sitting on the old floor, you are going to report cards, practically, you can also do a month program, or you should also share the, you need a lot of number. So, you can just do the relationship like this. There's a lot of people, you can just do it. So, if you're not doing it, you can do it. You can just do it. So, you can do it. So, because you need to fill up some basic information about that, like, besides, you need to say, you need to get like that. So, after the discussion, you can share with the screen shot, and also, they go for the top of the page, and show IE, then the admission from IE, but tomorrow, you look at the course from admission. You can show it in the empty page, if you pay me one, the class section, and the leg, then. Okay, so, you have any queries? How are you, everything you've created? I think for now, I'll go through it. Okay. Okay, so, thank you, sir. Thank you. I see a big four-fire group of you just come later, and it's just because two months' time, or you need to start the class, and so do it. So, today, I'm so real. But I am okay. So, if you will take, if you will take for your doings, if you will take for a session, or you need two minutes, if you will take. So, just a ticket, or you need to finish it. Okay, so anyway, I insured or you can start. So, I just go through that, and let me know. Okay. Okay, sir, okay, thank you. Have a nice day. Thank you, sir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you. Hello. Hello. Hello. Hello. Hello. Hello. You are still amazement to Klimtter се. Pardon you. Yeah. Pardon me. For temperat Hybridd. Well, I am. Bon environment. Welcome to this job. Disklept all this time. Very good. From the time that 11,000 people are participating in our next service. I'm sure it will be alright. Because I'm all I'm going to. Are you aware of what that one said? Yeah. Okay. So actually I want to inform you that I see these parts of the first home victims. And also, the people for this, I can know it upcoming, the real national victims. But I'm not going to get some of those parts. Okay. So, I'm getting a little bit of an amazement regarding my child to work on. I'm so too cute. You can feel it. Yes, it's a really nice. Uh-huh. So, you saw that the work on amazement, the work on that ticket. Uh-huh. Okay. You have already met me already. You are going to. No, no, no, no. I told you I'm in. I already wanted to. I was. Yeah. I'm taking it. I did not work. Okay. Okay. I'm not going to shoot it. You see I'm sharing a bit of a lot of my anxiety. I'm sharing a lot of number of people. You could be like 40, right? Okay. Okay. Yeah. So, I think I've got to come on top of the little national election. You can't really have to do any technical. So, that can work on online next door. Yeah. Uh-huh. Yeah, that can work on online next door. You can have them come from. So, you will swap. So, uh-huh. Yeah, I'm just going to call the second one national election. Right? Oh. Yeah. So, I'll choose her here. Uh-huh. The second one, I can go and really think easily. Uh-huh. I'll stand by. So, I'll be right to death. The constant only up. It's right. So, the third one, I can go and move here. Or more. Uh-huh. I'll be right back. Okay. So, the second one is here. Uh-huh. Before that, I can go and choose. I'll give you two more classes. I'll change for the next. The how the questions are coming. How they are going to answer the questions like that. And so, two months class, that's actually a point to prove it. The correct answer. So, that will also online class for the big two days class of the year. Providing. So, uh-huh. I'm going to run. A big two days. Big two days. Yeah. Big two days. So, if I actually uh- Monday two Sunday, trainers are available. Sorry. In big two days, we can choose. From mostly two months, I choose in a packet. I'm just. So, like that is your. Okay. And also, I hear I choose for the five minutes with the class duration thing. I'm for the five minutes class duration. I'm also like morning eight of the food, evening eight of the club. Um, uh, sections are there. So, you can take any food designs. So, uh, there are some, uh, I'm also taking them to a ticket, uh, evening back. This evening back, it's like a flight to flight for the flight back to sections. Uh, two weeks ago. Like that. But basically here, actually, there has been a time to remove their IQ 11 and also thinking about the ticket. So, we all know that uh, the students are by fighting the thing. They are outnumbering. Like, we hear we are in the students how to understand the questions. We told them by fighting or we told them how to remember it. So, how they understand the question and how they can answer it. Like that, they are teaching the students in class. This is still our life. As sections are going on. Like that. Okay, okay. So, uh, the standard procedure, uh, having a dose. So, uh, this program is uh, uncomplimentary or uh, are there some charges in it? Uh, I can measure, uh, the classes take class only. Two thousand rupees with a class fee. So, uh, while you are doing that, if you're sitting in the end, you can do a paid uh, a paid amount of two thousand rupees for the end date to one class section. Okay. So, I'll give you a piece for two months, please. We are two months class sections for two thousand rupees. The end date class section. Okay. Okay. So, uh, I'll share the, uh, I'll share the session and also, uh, uh, you are going to report a certificate and I want to do a month program. So, I'll share the, uh, you need a lot of number. So, you can just do the session. Like this, it can be a high, you need a lot of number. So, the session in will be active. Uh, after you can just keep going. So, you need to fill up some basic information about that like, uh, size, which I mean, size, uh, paid like that. So, after the session, you can, uh, share with the screenshot and also, date over top, but then so I will, uh, then the admission from I need to. But tomorrow, we, uh, tomorrow, you look at the course from admission. Do you show you can shoot in your basic certificate? Then you want the class section and then, uh, like that. Okay. Okay. So, you have any queries or you have everything you have to? Um, I think for now. You, uh, send me a little bit, uh, go through it. Okay. Okay. Okay. Okay. Okay. Okay. Thank you, sir. Thank you. I see a default period. Just commenter, since that, because tomorrow time, you need to start the class and so, do you? That's a trick today. I'm so real. But I don't know. Okay. So, if you will take, if you will take for lecture minutes, uh, if you will take for a session, or lecture minutes, if you will take, uh, so just, uh, take it. Or lecture minutes? Okay. So anyway, I will share the old details, uh, so I just go through that and, uh, let me know. Okay. Okay. Okay. Thank you. Have a nice day. Thank you. Nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gates So very good from the time that the time was particularly better than some of these who said my soul and the are because I know all I make some are you aware of what that wants to do you do actually I want to inform you that I see you fast the fast from the and also you can focus on upcoming level national level of the and the and the and the the and the the the the and and and and and and and either another and yeah and and and that and again and yeah so that have a comment a little last and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and dumb can and but but and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and and</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elesim Hello Yes Yes So Nice I got me a job with變 sweetness for a little bit on my message emphasis on the cause of gentle from this emotion of death Raf freelancer and okay you are arbe$towning Y counted the better yes a Miss Y a you are you are okay out of by the does up up I use a defining instance to class duration thing. I'm for defining class duration, then also like morning 8 o'clock, evening 8 o'clock sections are there. So you can take any four defineings. So there also, I'm also taking them to a taking, evening 8 o'clock, evening 8 o'clock, like a fight to fight for, detaite by some sections. Ah, Tuesday itself. Like that. So basically here actually, the thing that I do in route there, I do live and also thinking about it. So we all know that, ah, childrens are by fighting the thing, they are not numbering. So actually, we are here, we are helping the childrens how to understand the questions, be told by having a little bit thought to the homeworky. So how they understand the question and how they can handle it. Like that, be a teaching of the childrens in class. This is teaching our life, as sections are going more. Like this. Okay, okay. So, ah, the second question is, ah, having a doubt. So, ah, this program is, ah, and complementing or, ah, are there some charges in it? Ah, here is a, ah, it's a classic big class of YouTube, so you can do it with a class piece. So, ah, while you are doing that, as you are sitting in the end, you can do a big, ah, a few more notes. 2000, 64, then, then, two month class sections. Okay. So, further, please put two month classes. We are two month class sections for 2000 pieces. Then, then, class sections. Okay, okay. So, ah, I will share the, I will share the, the section, and also, ah, ah, you are going to report a practical, and I want to do a month program for all the roles I share, that the, ah, you need to watch a number. So, you can, just do the, the section. So, this, take me high, you need to watch up, so, the section, you need to be active. After, you can, just keep going, you, so it will be going, so, because, ah, you need to fill up some, ah, basic information about, ah, like, ah, site, site, site, uh, date like that. So, after, the section, you can, ah, the share, you can, ah, you can, ah, the share, you can, ah, the screen show. they, they, they, they, they, they, they, they, they, they, they, they, they, you get to, they, you affect the project, they, you affect the project, from the project, from the, of course. Okay. So, tomorrow will be recorded, So, are you, how are you everything Your Playing? Um, um... um, I think for now, um, Um, Um, I think for now, and me as both of us, and we got three, the class, so, I, I'm so, real. But I, okay. So, if you will take, if you will take, or you will, if you will take, or you will, if you will take, so, just, uh, take it from, or you will, if, okay. So, anyway, I'll share the old details, so I just go through that, and, uh, let me know. Okay. Okay. Okay. I'm going to have a next class. Thank you. Thank you. You're welcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Choose A Narrative months market third transportation I actually do not hear me out in the children's house to understand the questions. You don't abide by having or with total of number 80. So how they understand the question on how they can handle it. Like that, they are teaching the children's in-class. This is still alive as such since I was going on. Like this. Okay, okay. So I decided to go to the area, sorry, get out. So this program is uncomplimentary or are there some charges in it. I can tell you that it's a classic, classic, or you two thousand rupees with a class fee. So while you are doing that, if you are just a little tiny, you can do a paid, a few cents more notes. Two thousand rupees for the end of the human class section. Okay, so I will go to the middle of the class section. Yeah, two months class section for two thousand rupees for the end of the class section. Okay, okay. So I will share the answer that is in Android. So you are going to go to the top of the page and you can go to the middle of the program. So you can just do the research. So you can just do the research. So you can just keep going. So you can go in. So some of the people that you need to fill up some basic information about that. Like, like, I would say, you need to pay that. So after the decision, you can just share with the screenshot and also take over the top page. And so I will be done by admission from the end of the page. But tomorrow, you will get the form admission. You can do it in your basic, basic, then you want the class section and fill up the list. Okay. So you have any queries or you have everything you have to. I think for now. You are going to send me a little bit. Okay. Okay. Okay. Okay. Thank you so much. Thank you. I see a before fire. Hopefully you just come later. It's just because two months time already, you need to start the class section. So I took the day. I'm so real. Okay. So it will take only two minutes. It will take for a session only two minutes. It will take. So just a ticket. Only two minutes. Okay. So anyway, I'll share the only cancel. So I just go through that and let me know. Okay. Okay. Okay. Thank you. Have a nice day. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The have he Thank you for your support. Thank you very much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ety Perma Hello, hello, how's everything good off you? good off everybody too, I mean oh, the judge put their in the My name is much much I'm calling from the community and my name is much much more important from the club that we get disclipses of the that regarding some things I'm looking at particularly better than some of the spurs so in the area all I make are you aware of what that yeah okay so actually I want to inform you that I see you in part of the first round exam and also you can focus I can know it's upcoming that national exam most important okay so you're getting the main regarding the charity to board the exam okay you get the key yes it is 10 minutes so you saw that the board can be that okay you have already been already you are going not not not not not not not not not or I a I can I I I I I I I I I or I I okay take Questions Providing Hi But actually I actually I for Beveling Tri— случае r r me what I think we're going to have a memory. So how they will understand the question on how they can answer it. Like that, they are teaching the students in class. If you steal our life, our sections are going wrong. Like this. Okay, okay. So, I'm sorry, I'm not saying it, I'm sorry, I need a dose. So this program is when complimenting or are there some charges in it. I think there are classes, they are going to be 2000 rupees a class fee. So while you are doing that, you can do a fee of $2.64 for the end of the human class section. Okay, so that is the piece for the human class. And the human class section for $2.64 for the end of the class section. Okay, okay. So I will share the answer for the session and also you are going to have to pick it up on the human program. So I said that the human class of number. So you can just do the research in class. It's a thing we have in your work. So the research in human will be active. After you can just keep going. So it will be going. So something because you need to fill up some basic information about that. So I like to say, which I made, I did a bit like that. So after the decision, you can share with us. And also they go for the first and so I need them the admission from I need to send. But tomorrow, tomorrow you look at the form admission. You can do it in your basic, basic, then you want the class section and the lecture. Okay, so you have any queries or you have everything you have to get? I think for now. You are going to send me a little bit more to it. Okay. Okay. Okay. So thank you so much. Thank you. I see it before. I hope you just come later. It's just because two months time or you need to start the class. So I will just treat today. I'm so real. But I got it. Okay. So it will take for a little bit. It will take for a session or a little bit. So just a little bit. Okay. So anyway, I'll share the old details. So I just go through that and let me know. Okay. Okay. Thank you.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Audio_Transcription.xlsx
+++ b/Audio_Transcription.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,410 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c0fec98f-91de-4349-b21d-25dc05f55eaf_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two Two One Two Two Two Two Two Two Two Two Two Two Two Three Two Two Two Three Three Two Three Two Two Two Two Three Two Two Three Two Three Three Three Three Three Two Three Two Two Two Two Two Two Three Two Three Two Three Three Three Three Four Four Three Four Three Three Three Four Three Three Three Four Three Four Three Four Three Three Three Three Two Three Four Three Four Three Four Three Two Three Four Three Four Four Three Four Three Four Three Four Three Four Three Four Three Three Three Three Four Three Four Three Four Three Four Three Four Three Four Three Four Three Three Three Four Three Four Three Four Three Four Three Four Three Four Three Three Three Three Three Four Three Four Three Four Three Four Three Four Four Four Four Four Four Three Four Four Four Four Four Four Four Four</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c0fec98f-91de-4349-b21d-25dc05f55eaf_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trump Yes, one second. Now this can be your main lady. Nam goyel, who people and people and people that they don't give in, don't go. Yeah. Yes, I certainly have shared long ago a lot of problems I was sharing two new WhatsApp members on so after this phone. Okay, then, some homes are examined and some homes are examined and some homes are examined. Actually, we did it here in the direction of the phone. And later, we had a discussion. He said that some of the some like two times also a little bit of a little bit. Yes, so, now, I'm going to be transferring to the Academy Council. I'm so even big, I'm going to be doing this. One second. Okay. Okay, so, I'm going to be a little bit. Okay. Okay. Okay. Okay. Okay. Okay. Okay. So, Uh, okay, okay. This is the okay. So, first of all, I don't know what that is. Uh, that's good. I will not beg me for the next time I have fine. I'm going to give a round. Um, there are five of us talking to one of the four three of us talking to one of the four three of us. Sorry. Um, you can talk to one of the three. Um, um Meg. I'm so sorry for you. Um, um, um, um, um, um, um, um, um, um, um, um, um, um, um, um, um, we think Next. Then, uh, Yeah,irdi Coverer not well Yes. We review the Mic Band day Sp now but in Islam a selection of I want On a crescent near in completely completely totallygend Butflanzencin bad bad SUBSCRIBE Pretty good the youtube in the the in fifty 갔 intimidated a wing weighs like</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So many evidence, oh be sarcastic Please E posição water So Hello Hello Ook me Good uh feature was ok so actually I want to inform you then I definetely motor to fast phone like seams and the Nakeste ok ok ah so you thought that the port car and the port car and that to get ah ok you have already met already you are not not my choice be a man I already want to be a man I will take it I did not hope ok I will take it ok my oh and and quickly how you</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmpz34v50gk.wav</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmp1pvwug4p.wav</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmpo1liezjy.wav</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmpxaf3i36f.wav</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmpw78d2un_.wav</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> suppose i will use ur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmpc3d0gpj_.wav</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5% 1.5% 1.5% 1.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmps2_09x7h.wav</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\AppData\Local\Temp\tmp1x_tegd_.wav</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> adherence</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\audio.wav</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rh горje Chirg Rh gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\audio.wav</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>簡爽 prof станов</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pleasegras Pleasegras Hello oh, hello Hello This all Well, thank The I Jason给我 the mail immediately more Yeah So Support I000 Yes Congratulations Yes youd , , , , . , , , , , , , , , ma , important okay okay okay thank you thank you I see a before fire for you just come later it's just not because too much time or you need to start the class and so good luck I took today I'm so good but I got okay so if you will take if you will take for a little bit to make a for a session or little minutes you will take so just take it for a little minutes with okay so anyway I will share the old details so I just go through that and let me know okay okay okay thank you have a nice day</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> heavens That's true Red Does the bulldog have a message in it to get a Aha You already want me to place you with NO I'm a member Xiao Lan, check there No other long like to Do you copy Well, after that again, Come on first so that then want you an online next a little is a little Confirm Now is Not I'm on the moon. The VK 2 days ago. VK 2 days. Yes. VK 2 days ago. But actually, I'm on the 2nd train in Sarabhajipa. Sorry, VK 2 days ago. From Australia to London, Sarabhajipa. So like that, if you are okay. And also, I'm here. I use for defining the class duration thing. I'm for defining the class duration thing. I'm also like morning 8 o'clock, evening 8 o'clock. Um, uh, sections are there. So you can take any for defining. So, uh, there are some, uh, I'm also taking them for taking, uh, evening, but, uh, evening, but, uh, like a fight to fight for, for defining the section. So, uh, like that. But basically here, actually, we are helping the train to improve their IQ level and also thinking about the future. So we are not that, uh, childrens are by fighting the thing. They are not going to be. But actually, we are here. We are helping the childrens how to understand the questions. They don't have by fighting or with total of them. So how they will understand the question on how they can answer it. Like that, they are teaching the childrens in class. If they steal our life, our sections are going more. Like that. Uh-huh. So, uh, the standard procedure, uh, having a doubt. So, uh, this program is, uh, complementing or, uh, are there some charges in it? Uh, I can just, uh, uh, the classes take class only 2000 to 50th class. So, uh, while you are doing the decision, you can do a, uh, the second amount of 2000 to 40 and get to human class sections. Okay. So, to have a little piece for two months, class sections for 2000 to 50th, the end of class section. Okay. So, uh, I will share the answer that is sitting on the floor. So, uh, uh, you are going to report cards. Practically, you can also do a month program. So, I will share the, uh, you need a lot of number. So, you can just do the decision. Uh, this, uh, uh, uh, okay, so, uh, thank you, thank you. I see a before fire, but you just come later, it's just not because two months time, or you need to start the class, and so do the, I'm so serious. But I got, okay. So, if you will take, if you will take for a lecture, you will take for a session, or lecture, or lecture, you will take for a few minutes. Okay. So, anyway, I will share the old details, uh, so I just go through that, and, uh, let me know. Okay. Okay. Okay. Okay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Soany celebrities help Heartbearing The Hello Hello you is youtube yes some little here Okay, so okay, thank you so thank you. I see it before fire. But we just come later in session that because too much time already you need to start the class and so do you have to switch today on so real but I got okay. So if you will take if you will take for a week to win so it will take for a session or a week to win you should you will take so just take it from only terminus then okay so anyway I will share the old details so I just go through that and let me know. Okay okay okay thank you have a nice day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c0fec98f-91de-4349-b21d-25dc05f55eaf_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> s não é tanto hi Andy yes I'm sorry I should be a doctor I want them to be also on the beard on the one look 27 or the other I'll pick them yes I was over buying his teacher to-down graduation from that he's been qualified for the next seven days was final okay which will be on January 30th not January 30th yeah, I'm on January 30th I'm on December 30th okay, yeah, I'm on January 30th I'm happy to see you move that is full garden so if you get monthly wedding you have change on on the out is it being needed or one second I'm so once again I'll give me a second yeah, I'm so I'm being a student who the male I'm having to check it so I think I have checked it just one one second I'm just going to be your main and you have goal to keep one and then that's you yes, yes, actually I have shared long that one not a problem I was sharing two new more check members who are so important so okay, then I'm going to get a second and later we had a discussion that some of the some of the so I'm going to get a second and then then then then then then then then then then then then then then then then I'm smart this I have seen okay so first of all I've heard that when I'm a big mess in the life I'm not really a mom I'm talking to a me and you said the portrait bringing me sorry I'm you said the bringing me a me sorry sorry sorry sorry sorry sorry sorry sorry sorry sorry I'm talking to a me I'm talking to a me I'm talking to a me sorry sorry sorry sorry sorry this we more move move move move move move move極 Opening Turns out this is My Home Home Homeschool Before the A complete up to two men and a couple of three. She was given a job. Interested rain. Program. To. A. Can you. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. To. Yes. Well, Thank you. Thank you. Thank you. Thank you. Thank you. Thank you very much. Thank you so much. Thank you. Thanks for your viewing to G been an amazing experience. Thanks for your viewing to G been an amazing experience. Thank you. Yeah. Amen. Yeah. Yeah. To. Now. Go. Yeah. Are. Okay. Now we have bought. Okay. The. O. Ientsae. Yes. So. It's. enrolled now. Okay. Smoked noodles. No exactly. Not a luxury. Fried~~~ Here they are. Okay. Yes. You are the classic Shalom. You are the original form of a decent. You are the one who is making meel or you are the worst of the world. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. No. Yes. Was it a G stands? But currently they are called finals. They who are not quite popular in BED Ore series band. They take form the discs for the base for the internal instruments. Okay. This is completely up to the next class. Please do this for what we are going to do. We'll be having a teacher for the final round. Go ahead. Yes. What did you get for the final round? You are the copyboard. I'm so sorry ma. Did you have a little bit? We're going to be working on the final round. Are you serious, detective anyone is going to talk about us? Yes. In some cases, I like when we have time to talk to our parents who are with us. Have we heard them talk about us before coming home anyways? Yeah. Well, now come see itерpl is for delay and Peak from tomorrow blue time. I'm coming straight up on the 12th starting. And in December blue time if you all get the guts to go in standing for you, I try to find where I can stand right now and who help me to Get Hauptheims be? I will find so 2 months many von Haha guys I just wanted to nail these hours if you too are worrisome, I come here I am coming I am giving you something to do o nинem кажhanah Bring you two What? come on What food do these guys have? Some of them have to do food Yes sure I am not monkey my I mean up I am keeping You Native In my Canaan Eki 000 A S Onew A S A S A A A S One A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S A S S A S A S A S A S A S A S A S A S A S A S A S A S A S A A S A S A S A S A S A S A S A S A S A S A S A S A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Un costume pose Let's send out videos The kitchen-wlesiaundani Sensei animals Shoot balls Yes I have already met her My husband called we got her She had received a good salary I will share her university number Finally She has received completely my salary of the flat first we have to complete online next time yeah yeah, I can also online next time you can attend from home with them sure, sure very smart so I would like to call the second round last year's lesson right? oh yeah so I choose her here the second round like I have been even out and I stand and I will be back with the post-censor you have to practice so I can run back to my room here or most of the time I will be back with the post-censor okay so basically here before I take them and give you a two month class for the class how the post-censor coming how they are going to answer the post-censor like that and so two months class and so that's actually going to provide the correct answer so that will also online class for the two days class of the year providing so like the Monday and the VK2 days VK2 days VK2 days so actually Monday to Sunday and VK2 days for most of the time so like that if you are okay and on social here I choose for the five minutes with the class duration thing and for the five minutes class duration then also like morning eight of the evening eight of the sections are there so I'm also thinking evening that is like a five vite five vite five five five five five five five five five four five five six six six six six six four seven six so this program is and complimenting or there are some charges in it and I feel it's a classic tape class or you do the class piece then while you are doing that at the session you can do paper, paper, mondose two-thirds of the computer piece for two-thirds of the class and you can do the class section so I will share the session and you can report and report and or process then with this there is unique image and we can fix waste and In twitch hout i Through that</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\audio.wav</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bishop</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\audio.wav</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> boots</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hello Hello Welcome to dishes You girls only Ladies everyone Thank you very much for meeting me to myself Thank you Permang освange Are I red에서도 I wonder informative for you yes ten minutes so you thought that it was like that it's like okay you already you are going no no no no you already I already THUYA did not dead i carry i carry skateboard so i carryš so so Pl pour And also So here I see a Defining Synthes Class Duration Then And for Defining Class Duration Then also Like Morning 8. 2 Evening 8. 1 Ah Section So there So you can take any 4 Defining So there also So I'm also them Taking Evening Backers Evening Backers Fight Fight 4 Like that But basically here Actually The thing that I Do you Do There Do And also Thinking A Busy So we All the ah Childrens Are Fighting The thing There All The Maritime Actually We are The Children's Amtus Custans We Don't Amtus Custans We Don't Amtus Custans How Like that We are Teaching The Children's Inclot This is Team Our Life As such Like Yes Okay So I'm Starting You So I'm Starting You So this program is And complementary Or Are there some charges in it? Are I Is Classic Classic Classic So We are doing that In session And You can do Paper 2 4 And 2 And Classic Okay So I will share In session And So You To Pattas To To To To To To To To To To To To To To To To To To The After You Can Just keep Convert Can So You Need to Some Basic Information about Like Like Side Side Side Side Side Side Side Side Side Side Side Side Side Side Side So You Can Convert Just keep Convert Can Just Go You Part Let You Need Part Do To You Need Part Do To To To To To We Just Convert It You Need To So Good Today I am so So You Can Can You Can You Can You You You Can You Can You Can I will share this Through That And let Me Often Often Often Often Often Often Often Often Often Often Often Often Sometimes What Sometimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5- peacock of 8 . So basically here actually there is things that are doing root there, I killed avert and also thinking about the things that we all know that the childrens are by fighting the things that are out the marital. So actually there here we are helping the childrens how to understand the questions. We told a by-hunting or we told them how to remember it. So how they understand the question and how they can understand the answer like that we are teaching the childrens in class. This is teaching our life as actions as going on. Like this. Okay. Okay. So I decided to proceed you telling a faring a thousand. Also this program is incomplementary or are there some charges in it? So basically there are classes based class only two thousand rupees a class piece. So while you are doing that in session routine you can do a few more notes two thousand rupees for the end date two month class section. Okay. So further a piece for two months class. We are two months class sections for two thousand rupees. The end date class section. Okay. So I will share the session and also you are reporting practical and also two month program rolls. So I will share the you will watch the number. So you can just do the session. So this thing may hire you you will watch the session. You will be active after you can just keep going. So some because you need to fill up some basic information about that besides the data. So after the session you can share with the screen shot and also date over top and so I remember admission from IE. But tomorrow you will get the information. So you can choose any basic information you want. So you are probably recording. So you are everything you have prepared. I think for now. I will go through it. Okay. So you can just come later. Because two months time you need to start the class. So today I am so really good. Okay. So you will take you will take for a two minutes. Okay. So you need to do that. Okay. Okay. Okay. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Because I know Hello Hello Alsoenes Yes Hello Hello Hello Hello Councillor It's And o'Connor After You said that the poor guy and the poor guy didn't expect to get lucky. Uh-huh, okay. You already know these. You are going to be. No, no, no, my children. I already wanted to. I was. Yeah, I was. I did not. Okay, okay, okay. I'm not going to see you. You see, I'm sharing. You see, there are lots of people. I'm sharing. Number twenty five 5 for you right. So, author twenty five welcome mirror lastgo, the payment giving right. We are döv Perform LGirl. Yes, hunting dead collect이스amedipp la Correct, dévelop st Everybody. Sorry.ust I be completelyNext The by the gym And don't succeed. I Sep. right. So We will see you tell a funny So this program is a complimenting or are there some charges in it? I feel that it's a classic big class of YouTube, so while you are doing that in session of time, you can do a 50M on those for the MDE Human Class section. consider a piece for the month's class. We are two months class section for 2000 pieces. MDE class section. Okay, okay. So, I will share answer version and also you are reported, practically, you can also do a month program for all so I will share the answer. You can just do the session. So, you can just do the session. So, you can just do the conversation. So, you can just do the conversation. So, because you need to feel some basic information about the like the session. You can just do aARON for an accordingly. Ah, I'm okay. Okay. Okay. So, okay. Thank you. I see a before fire. But we just completed the exercise. That because too much time or you need to start the class. So, today, I'm so real. But I am okay. So, if you will take, if you will take for you to win, if you will take for a session or only two minutes, if you will take. So, just take it from only two minutes. Okay. So, anyway, I will share the old details. So, I just go through that and let me know. Okay. Okay. Okay. Thank you. Have a nice day. Thank you. Nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> now Hello hellodrumommt Lt. modern is all all have an Yes. Okay, some they continue here are actions for the how the question are coming how they are going to answer the question like that and so two months later that actually are going to prove it the correct answer. So that will not so online class for the weekly two days class of the year already. So I am going to do a weekly two days of weekly two days. So actually I am going to do some the training. So I will be sorry in the beginning and you do the you can choose from mostly to the time to do a packet of time. So like that if you are okay and on so time here I see for defining the class duration thing and for defining the class duration they are also like morning eight of the food evening eight of the action so you can take any food defined. So I will show you I am also taking a evening back just like a fight for deep fight back of actions. Like that. So basically here I see the thing that I do in root there are I kill them and also think about the thing. So we all know that ah, childrens are by fighting the thing they are out memory thing. So actually we are here we are helping the childrens how to understand the questions we don't by having or we don't have memory thing. So how they understand the question and how they can answer it. Like that, they are taking the childrens in class. This is too a section that is going like that. Okay, okay. So I decided to see you, I am having a dose. So this program is in complimenting or there are some charges in it. I kill each other with a big class or YouTube also looking to a class so ah, while you are doing that, a section of time you can do ah, a big two-tone two-tone four-dendent section. Okay, so if I have a big, two-month class section for two-tone two-tone two-dendent class section. Okay, okay. So, ah, I I was afraid, I was afraid, I was afraid, I was afraid, I was afraid, I was fire I was afraid, But the I was afraid, So after the decision, You can share with the screen show and also They go for the top and show I leave them the Admissions from I need to start. But tomorrow, We Tomorrow you look at the For some admission. Do you Show you can too And you have to see If you can You want the And Like that. Okay. Okay. So you haveouthern How are you putting your Fair? Um, I think for now. You And me, I will go through it. And Okay. Okay. Okay. Okay. Okay. Thank you sir. Thank you. I see before fire, But we just completed it. Just because Two months time, Or you need to start the class. And so, I took the day. I'm so Real. But I am okay. Okay. So, You will take, You will take Or you will Do it. You will take for a session. Or you Do it. You will take. So, just, I take it. Or you Do it. Okay. So anyway, I will share the Oldie Cancer. So I just go through that. And, I think we know Okay. Okay. Okay. Okay. Thank you. Have a nice day. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> into Van aquilo uh no betterking very good great uh I21 and also thank you lord it isег oh What You del So So Yeah, I'm not sure what I'm like, but I'm gonna tell you Can I tell you something? Sure Yes, Bob So I'm interested to call the second round last year, let's go Right? Oh Yeah So I choose her here The second round, like, the number you need to be Is not an I'm sure that the number you need to be The cost is only up to the right So So the third round, by the way, here, oh, I'm gonna go to the right Okay So, the second round here, before I take them, I'll give you 2 months class of actions for the trade How the cost is coming, how they are one, two, answer, That cost is like that, and so So 2 months class of actions, we are going to throw it So That will also online class of the week, two days class of the year, already So, like, the Monday, then, then The week, two days of Week, two days, yeah, so Week, two days of So, actually, Monday, two, three days of the year, so In week, two days, we can choose From most of the children's actions in our packet I found this, so like that is If you are okay, and on social here, I give A defining instance of class duration thing, and for Defending class duration, they're also like morning 8 o'clock, evening 8 o'clock Uh, actions are there, so you can take any 4 defines, so there are so So, to, um, also, children's actions, taking, uh, Evening classes, evening classes, like a fight, 2 fight, 4 define classes, actions, uh, 2 sets of, like that. But basically here, actually, they are And things are doing good there, I, 9 o'clock, and also thinking about the kids, So we are not that, uh, children's are by Fighting the things, they are not Not allowed to remember anything, But actually, they are here, we are In the children's how to understand the Costumes, we don't Aby, Fighting, or we don't To remember anything, so how they They understand the question, how they can Answer it, like that, they are Children's, in class, this is Still our life, our sections are going Like that. Uh-huh, okay, okay. So, uh, the children will see you To, uh, having a doubt. Also, uh, this, this program is, uh, And complementing, uh, Are there some charges, isn't it? I can, uh, uh, it's a class, it's Class of the year, 2000, With the class teacher. So, uh, while you are doing that, It's just a routine, you can do It's, uh, it's been On the, uh, 2000, it's For the end-day human class Okay, so, uh, To the end-day class For the end-day class For the end-day class For the end-day class So, uh, Isher, uh, Isher, uh, is So, uh, uh, You are a report card, So, after the decision, You can, uh, The share with the screenshot, and also They go for the top-up, and so I The, uh, then the admission from I, the official. But tomorrow, we, uh, tomorrow, you Look at the form admission, do you So you can do it in your Basic, basic, basic, then you want the class And then, the letter. Okay. Okay, so, you're probably Any code inside of you? How are you? Um, I think for now, You, uh, send me a little bit, Go through it, and okay, Okay. Okay. Okay, so, okay, thank you, sir, thank you. I see a big one for you, just come Later, it's just, you know, because Two months time, or you need to start the class, And so, uh, so, I treat you today, I'm so Real. But I, uh, okay. Okay. So, you do It will take, it will take for You do it for, uh, it will take for A session or you do it for You do it for, uh, so just, uh, Take it from For you do it for, uh, okay. So anyway, I insured the All the cancel, so I just go through that And, uh, let me know Okay. Okay, that's okay. Thank you. Have a nice day. Thank you, sir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\audio.wav</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> set up streams Download hello Welcome to the new Good afternoon This is so slow Today listen those Let's put a copy of the e-mail And just final round And i will call it from disclab because if you like, it does better according can you please so so okay so actually i want to inform you that i can use part of the first round like them and also if you can spot us i can know in upcoming level national level like them but i'm glad you did some of those but you know okay so you can give them a little bit of a little bit of regarding local port that i'm trying to give you to give you to send me a name so you said that the port can have a name that the port can have that to get okay you have already been already using you are going to not not not my to all be a name i already wanted i want to take it i did not hope okay so i'm going to show you what i want to do and share with you a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of a lot of the a lot of the and no I Shit a lot. yes now okay. so basically here before that I'm going to give you to the questions coming how they are to the questions we are so that so the one we get to we get to yes yes yes yes yes yes yes yes yes yes yes you are now continue keep I do not and with shipping basically here actually thing that I do in route there I do not and also thinking about it so we all know that the childrens are by fighting the things that are not the mariti here we are the thing that childrens how to understand the questions be told by the childrens in class and the childrens are life and so I am sorry I am sorry I am sorry I am sorry I am sorry I maybe I knew very prepared on Board and students b1 because for courses and lots of courses in class A and One the more continue ensure</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So I need a new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new new</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Incoming c B bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum bum</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saxon Allowing You so youちゃ ha可 You already not Yeah for the rightเล Yeah yeah Yeah Behind This Already Like the Monday The VK 2 days We get to Yes We get to this So, actually Monday to Sunday, Friday, Saturday, April, sorry We get in a new 2 days weekend too From Australia to London, South to the North Package, I found this So like that, if you are okay And also, I'm here I use for 5 minutes With the class duration thing And for the class duration There are also like morning 8 o'clock Evening 8 o'clock Uh, sections are there So you can take any 4df So, uh, there are also Uh, I'm also taking them So, taking, uh, evening Backers, evening Backers, like a fight To fight for Detail backer Fixings Uh, Tuesday Uh, Tuesday So, basically here Actually, we are helping To improve their IQ Level and also Thinking capacity So, we all know that, uh, Childrens are by fighting the things They are not numerating Actually, we are here We are helping the childrens How to understand the questions We told them by Harding or we told them How to remember it So how they learn The standard question How they can handle it Like that, they are teaching the childrens In class This 16-hour life As such, you are going more Like that Uh-huh Okay, okay So, uh, the standard question is Are you telling us? Also, uh, this program is, uh, And complementing or, uh, Are there some charges, isn't it? All right, can you turn on, uh, In class, in class, in class, 2,000, with the class Teacher, uh, So, uh, while you are doing the Decision routine, you can do Create, uh, The teacher models 2,000, because for the Ended Human Class Sentence. Okay, So, I will just put 2 months for the class And, uh, 2 months class Sentence for 2,000, with the ended Class Teacher. So, uh, are you sure? Are you sure? Are you sure? Are you sure? I am doing, uh, uh, You are Report class, Practically, you can Do a month for Grammar also Don't say, you sure, That the, uh, Watch-Up number. So, you can just do Recessions. Uh, this, It's a thing, You need a watch-up So, The Recession You need to activate. Uh, after, You can just keep Convert, you, So, it will be going So, Uh, you need to fill up Some, uh, basic Information about Okay, like, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, I, �, Toights. U, B, I, picks, bara nuevo, Ok, Copy. Copy. Copy. Copy. Copy. Copy. Copy. Copy. Good village, good excellent office has built some very good and let me know okay okay</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Please prom... Participate Have a seat, pal... Looking Want to see a movie? Queen... Maybe a girl could be brought by... Just imagine, sigma... She'syracing Where's the daughter of S啦... Call it Homeless young situations Are you kidding me? No, no... I don't know... Beheading Time to take the night off Give her another hand There she is Unauthor Foreground Yeah? Okay So actually I wanted to inform you that I've seen you before To tell you the first time I've come And also, I've been told that I've come down Upcoming the wrong national anthem But I'm glad you didn't know that possible You know? Okay So, you're getting into the mail And mail's out regarding now I'm trying to port that on certificate You do the thing Yes, it's 10 minutes Uh-huh So, you saw that the port can't have me... Uh, the port can't have certificates Uh-huh Okay You have already met no reason You are going to... No, no, no, no, no You already met me I already met you I was... Okay Okay Okay, okay So, I've been using it for a few years You know, I've been sharing it with you A lot of people have been sharing it A lot of number of people You could be able to write Okay, okay Yeah So actually, I've been told that I've come in the little national anthem And you can prove it It's a good ethnic So that I'm not going online next time Yeah? Uh-huh Yeah, I'm not going online next time You can attend some moments So, you're a small bit So, uh-uh, I'm just going to call the second round National Electronics Right? Oh Yeah So, I choose her here The second round, like, the number you need to know And, uh-uh, I'm starting to examine the demand of the post-censor layout And then, like, the number you need The most, uh-uh, the number you need to know is the number you need to know Okay, sir So, basically, you need here, uh-uh-uh Before that, I've taken the number and give you two months class for the class to how the questions are coming how they align to answer the questions like that, and so two months class that's actually a going to prove it a good answer So, that we're also online class for the weekly two days class of the year, providing So, uh-uh, like, the Monday to Monday the weekly two days of weekly two days of the year, the year, the week two days of So, actually, uh-uh, Monday to Sunday, Friday, Saturday and Sunday, Saturday, Wednesday, Saturday, Saturday and Saturday, the week two days we can choose from all three children such as you, uh-uh, packet like that is you are okay And also, so here, I see for the five minutes with the class duration thing and for the five minutes class duration, they're also like morning eight of the evening eight of the uh-uh, sections are there so you can take any four defines So, uh-uh, there also taking them to a taking a flight to a flight for a flight by the sections, uh-uh, two sections So, basically here, actually, there's things that are doing good there, I-Q-Level and also taking a bus to a new orn of the uh-uh, childrens are by-finding the things they are not going to be actually, we are helping the children how to understand the questions they are helping all the total of the number so how they understand the question how they can answer it like that, they are in class these two are life sections are going like this okay, okay so, uh-uh, the second was a little bit of a faringly dose So, uh-uh, this is-this compliment or uh-uh-uh-uh-uh are there some charges in it? Alright, so, uh-uh, it's a classic class review, two thousand rupees with a class piece, uh-uh so, uh-uh, while you are doing that, uh-uh, it's just a routine, you can do a-uh, it's a amount of two thousand rupees for two thousand rupees for two thousand rupees for two thousand rupees for the end of class section okay, okay so, uh-uh, are you sharing, uh-uh, is there any on-dotes, uh-uh, uh-uh, you are a report card practicator, no one could do one program, no one should regular words of number so, you can just do the session practice, attend me a high report, uh-uh, you can just keep going, so, um, cause, uh-uh, you need to fill up some uh-uh basic information about like, uh-uh-uh-uh-uh-uh-uh-uh, more so, uh-uh-uh-uh-uh-uh-uh, period like that, uh-uh-uh-uh-uh-uh, so, after the session is uh-uh-uh-uh-uh-uh, the share with the screenshot and also date of the top particular, uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh Round the model, we- uh-uh-uh-uh-uh-uh-uh, you look at the whole accommodation, do you saw you can't do it in your lab, did you see the secrets, did you find your one-back lab, did you find the lector? okay okay, so, you have any queries, how do you find everything you have created? um... something for now, you just uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh-uh- người okay, um... okay, okay, sorry, okay, Hanky, sorry, Hanky, I see it before Chaeok crappy systems, be 팬 chair, because a lot of time you need to start the class and so do things, huh I mean, they're so evil but I am okay it dried up so um... it would be to work if it oralion so you a... take it from only terminus, then okay, so anyway, I insure the old details are so I just go through that and uh... let me know okay, okay, okay, Hanky, have a nice day super thank you, nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So many of you have been in the room. Hello. Hello. Hello. Hello. Hello. Hello. Hello. Hello. Hello. Hello. How's Dad doing all? That's all? Yeah. deteriorates. – Richard. – he fixed it. – Yeah. I'm going to play children. – I m home delivered. – I like home compressing and stuff like that. – Spot lightning fans. – They gave me handquest right back. – I'm the kind ones who are particularly good at armament. – I'm a little bit slow. – I'm actually a little bit slow. – I'm a little bit slow. – Are you able to board that one side? – Yeah. – Okay. – So actually I want to inform you that I can use my computer for the first time in the exam. – And also, if you can board this, I can know when it's upcoming, the real national exam. – That's the regulation that's possible. – Yeah. – Okay. – So you're getting the main element regarding my challenge to board card arms. – I think you can do this. – Yes, it's 10 million. – So you saw that the board card aren't meant to board cardons that to get that? – Uh-huh. – Okay. – You have already made no use. – You are going to be able to. – No, no, no. – I already made it. – I was taking it. – I did not go on. – Okay, okay. – I'm not going to show you. You can see I'm sharing a bit of a lot of non-comparing sharing. You never watch a number of things. You can do it for the right. – Okay, okay. – Yeah. – So I think I'll just let them come in and let them last. They'll let some of you get through it. They'll do it. They can make a lot of non-line next. – Yeah. – Yeah. – Yeah, they'll let some non-line next. And you can add them from home. – So, you're a smart. – So, uh, I'm just going to call the second one last. – Yeah. – Right. – Oh. – Yeah. – So, I choose her here. The second one, I can go and really think, is not. And I'm going to stand by the door and then the costumator will be up. It's right. So, the second one, I can go and look here. Or, you know, I'm going to put them around the costumator. Okay. So, the second one is here. Before I take them, I choose here, give them to my class. For the class, the costumator coming out there, one door, and the costumator like that. And so, two months class, the costumator is going to provide the class. So, that's a non-line class for people who are providing. So, I'm going to run... The VK2 data. VK2 data. Yes. VK2 data. So, I actually am going to send the trainers out of the infrastructure in VK2 data. You can choose from all the data that you are sending. So, like that, if you are okay. And also, I'm here. I choose for the five minutes with the class duration thing. And for the five minutes class, the duration thing I'm also like morning 8.2, evening 8.2. So, you can take any four designs. So, there are some, I'm also taking them to take them, evening 8.2, evening 8.2, evening 8.2, like a fight for the fight back of six months. Just like that. But basically here, actually, they are helping to improve their IQ level and also thinking about the things. So, we all know that the trainers are by fighting the things that are out of the marathon. So, actually, they are here, we are helping the trainers out to understand the questions. They told about the fighting or they told them about the marathon. So, how they are able to understand the questions and how they can handle it. And they told that they are teaching the students in class. They teach students how life affections are going like this. Okay. So, I'm starting to be thinking about having a dose. So, this program is uncomplimentary or are there some charges in it? So, I think it's a classic big class or you can do it with a class piece. So, while you are doing the decision, you can do it with your models. It's for the end date, human class section. Okay. So, I have a piece for the human class. We have two months class sections for two thousand rupees. The end date class section. Okay. So, I will share the session and also you are going to report cards. Practically, you can also do a month program. So, I will share the video. You will watch the number. So, you can just do the session. Just take me high and you will watch the group. So, the session in will be active. You can just keep going. So, you will be going. So, because you need to fill up some basic information about that like, I would say, you need to get like that. So, after the decision is, you can share with the screen shot and also date over to the end. So, I will be done by admission from I. But, tomorrow, you will get a bit more information. You can do it in your lab. It's a basic thing. You want the class section and the lecture. Okay. Okay. So, you have any queries? How are you? Everything you have said? I think for now, you have sent me a little bit of a trick. Okay. Okay. Okay. Okay. So, thank you so much. Thank you. I see a before file. Hopefully, it is just completed. It's just because two months time already, you need to start the class. So, I took the day. I'm so serious. But I am okay. So, you do it take, you do it take for a week to win. You do it take for a session or week to win. You should do it take. So, just take it from. Okay. So, anyway, I will share the old details. So, I just go through that and let me know. Okay. Okay. Okay. Thank you. Have a nice day. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Let me know how we deal with it How we deal with it Hello, hello Hello, hello Hello Greetings, everyone from Al-Ajcput Adresse Yes, marine المpage möchte Hi, how are you? Nice to meet you Am I clear now? My name is Ali We are at the quad continent A close this continent What are the hidden ads? Congratulations from the cement Elon Musk He has been conducting像 thisshi my soul and Xia그렇 Because of all emigres Aryavira was a trainer Yes And Actually I wonder in four minutes Electronic ground Up to the first home Except And also Because people For this机 Subcoming Now I'm going to be able to pass the book You know Okay So You're getting into the main And means Are you regarding What I'm trying to I'm certificate You're To feel it Yes It And Means Uh-huh So You saw That the For God And Get So You saw Okay You have already Men already You are No No, no, my Old man Man I already I want You are I'm taking this I did not Okay Okay, okay I'm not any sure if you I'm sharing What a lot of Not A lot of Not A lot of Not Okay Okay Yeah So, I choose I can find Upcoming National Electron I can Proceed Up So, that Roll To Next Yeah I can Roll I can I can I can I can Roll To Online Next I can I can I can I can I can I can I can I can What I can I can I can I can Roll The The So, Before the Thank you Gonna Do Like that Two months Plastic So, That Online class Two days Providing So, A Big Two days So, Actually, I'm Detailing So, I'll be in the show in Wittigin We need two days We can choose Most of the Children's So, I'm Detailing So, like that, If you are Okay. And also, Here, I choose For defining Is the class Doition And for defining Is the class Doition Then also, like Morning So, I'm So, You can take any Four Defenders. So, Roger I'm also Taking And also, Evening Like, I'll be Fighting For defining Action Like that But, Basically, here, Actually, I have been Doing Router I-Q-Level And also, Thinking I'll be Fighting The things They are Router Marry Firing Here, we are Helping The Children's How To understand The questions We thought About Fighting Or we thought Router So, how They understand The question How they can Answer Like that, The Teaching The Children's Inclot Okay, okay So, I decided to take it I'm sorry, I need a thousand So, This program is And complimentary Are there some charges, isn't it? I can tell It's a classic So, You can do Keep So, While you are doing the Recession routine, You can do Take The 2.0 For the Human Class Pension Okay, Have a Piece for And 2.0 For For the Ended Class Pension Okay, okay So, I decided I decided I decided And So, You are Report Card Practically Get Ended 1.5 For 1.5 For And 1.5 For And 1.5 For And 1.5 For And 1.5 For And 1.5 For And Every interesting $3.00 Not one Other After Recession OrHow 1.5 For And 4.0 Dropped Front For Already Open 3.10 For preserve And Part schon For And Okay Okay So Quotes How Everything You have Here I think For now You Just send me A little Go through it Okay Okay Okay Okay So Thank you Thank you I see a Before Fire For you Discomputer It's just Today I'm So Real But I Okay So It will take It will take For Recession Or It will take So Just A Decide Or It will Okay So I insure The Already Can So Just go through that And Let me Have a next Super Thank you Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>f7422f49-5b42-48aa-a98c-67f1da3bda21_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>oooo! hello hello hello yes, hello I'm speaking to a Aria Dian, a judge put there Aria Dian yes my name is Aria Dian and I'm on the program I'm playing a game my name is Aria Dian I'm on the program I'm on the program regarding some people that even the kind ones might be a lot of Aria Dian yes ok so actually I wanted to inform you that I see these fast phones and also the people who come and I'm going to get some passport ok so I'm getting the regarding the charity portcard certificate yes it is so you said that the portcard is ok you have already been learning learning I already I'm taking okay if you have a lot of money you can do okay yeah so actually I can have a lot of money so that you can have a lot of money you can have a lot of money so yeah so yeah so actually so I'm here the second round I'm going to do the first round and then I'm going to do the first round ok so before I do the first round I am going to have a lot of money and then I'm going to do the first round and then I am going to do the first round and then I'm going to do the first round I'll do the first round here Yes we do this But we did actually abandon the traditional things when we do this we get temperatures right down like that is that is like this we can squat and for some like morning April and so you can take any 4D so taking even back and fighting 4D back and just like that but basically here actually you have things and also thinking about the things that are fighting and here we have things that are fighting and so how they understand how they can and this is team and actions are going like that so I decided to say that I am having a doubt so this program is incomplementing or are there some charges in it? I can do a class when you are doing that you can do 3D 2D 2D and 2D and 2D and 2D and so to particular human browser on-site that watching so you can the and you can just keep going so you need to keep going so you can do a class and you can do a class and you can do a class and you can do a class and you can so are there any courses or is everything integrate for now and and it and ok Ok thank you I see before clarify I am so real but I am ok so if you will take if you will take you will take a session you will take so just take it for you ok so anyway I will share the old details so I just go through that and let me know ok ok thank you have a nice day thank you very much</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> doses</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Audio_Transcription.xlsx
+++ b/Audio_Transcription.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,1138 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Right. Continue. Right. Right. I like when those waves have loaded the metal squishy board. Easily. This is a good method to make a video,ăm again. A duty remember,這麼難, when December 11 they think. Moi mama,说〉Kann很好〉 Ok ok. Keno metabolism and consciousness, may but under minute. because So, 1-0 Lisa is mill齣 and in select em for the next level of measurement, unfortunate, Malaysian. That's right. Okay. National. expertise or more. 908 kilometers. Lin's Deep Yi zone is just available on Route 12,軌跡 17. P't aired on from Port Island International School of Class A 3. Oh, this is easy. Yeah. Oh, yeah. This is the online exam. Oh, yeah. Yes. Yeah. Yeah. It's running. It's really. It's been for all in all in all in. Okay. She's already done. Yeah. Only then that's right. On, uh, really clear the first known examination. Okay. Yeah. That's right. It's not that there was a problem. That's also for that ending. There was some forces for it. Second known examination. Back. Yeah. You're regarding that. And I saw a little more called it. The native procedure. Yeah. I'll tell you. I'll tell you. This is there. Okay. Okay. Okay. But you've been held on. That's really fast. We call it the annual examination. Okay. Before that, we are going to be operating one month scale session for every qualified student. Okay. Through all the through all the exam. It's like, uh, it's not like an only student. Okay. Okay. Through all the exam. Through all the exam. It's like, uh, it's not like an only intrusional rolling class. It's like, uh, another method we are operating like only one best and only three to four students. That's why we are dealing an individual attention for each student. Okay. Awesome. Basically, that is basically four easy to practice. There's several examinations for that because necessarily it's very complicated like, uh, an India, English, and any qualified students are participating for that. That's right. You're playing the game like this. This failed session for every one. Okay. Four minutes. And also, if that's playing in the field, you're following the certificate, playing it from 98 to 90. Because the community that I need to be in practice with those students only, like, first and or second, as you know, only because 60 audience to answer appearing and become an individual. And also, I have to do this to explain the presentation and that permission. Okay. Okay. After the mission of one month, I will be directly ending all the further roles. That's where I call you. Okay. Yeah. And also, what is ending? Yeah. That's the main approach. All of the data. All of the past and the future of all India. No, I don't think they heard of what I'm going to say. Yeah. Yeah. You can both do all of the same and everything in that. And also, this very cool and very international organization and they're collating after complete no signing, after clearing the second role. There will be a final role of the mission that will be on March. March. That is the final role of the mission. Okay. And also, we are collating for, I mean, it's called policy for education for present also that next way to certificate in the Okay. Yeah. This is a procedure that and, you know, if the next week, one month, the transition is discussed that the goal is in the transition we be on all length within one week. Okay. Okay. Yeah. And also one more thing of we're collating one of the academic Woody Woody Woody Woody Woody</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> He know Tell Mawa can Okay national Buddha� Orthodox church d son LIKE yes If the law yes then the law okay yes yes yes yes yes yes yes yes yes second law that and also the native yes yes yes yes yes yes yes yes yes before that we are be aware of every whole whole whole whole whole whole whole whole whole whole full of sports 30 thirty thirty thirty thirty twenty thirty sixteen twenty forty thirty thirty thirty thirty thirty thirty thirty thirty thirty fifty thirty PJ Mhm. Yeah, and of course what is landing? Yeah. Though you have about eight hours ago, quite a heck of a general idea. Not happening. No. Water entsprech will so do that and also this like all in the international organization and the appulating after completely no finding after clear in the second round of the end of the end of the organization. Beyond much, much that is the final region of the international round of the grand mission. Okay. And also we are providing for it's called policy for education for President and also the next right to certificate in everything. Okay. Yeah. This is a positive that and you know, within next three moments that are in the discussion with this the goal in the organization will be on all the inside. We can join in the meeting and select Monday to Sunday. Any footage is this weekend. Okay. Okay. Yeah. And also one more thing. So we are providing one academic window for you. That upcoming member in monarchy for organization and association and the organization and what is that and what is that in the domain you are telling everything you will be up to you. I mean, you are preparing for your own homework. Okay. Yeah. And also we are providing this possibility and also there was a discussion process after completing the registration. We have been in the academic building for not to regard in the schedule and that you are monitoring not to be prepared. Okay. Now, any registration can form that or registration? Yeah. So in not like in a decision sheet, it's probably academic window also implemented for you and you are out. And also that we are providing one thousand of educational courses for completing the particular examination we are providing one thousand or upcoming educational scholarship for upcoming educational scholarship. Okay. And more the schedule and you don't get through the session but from that, only one thousand by 30, 4, 4, 3. Okay. You understand that? Yeah. Only one four-nine-for undertaking and wasting tomorrow or or should be sure sure sure and before seven the decision goes from okay. Thank you. Thank you. My name is well. Okay. Okay. Okay. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> write t Hallelujah Eh no no Hemadесс Hello Hello my name is Zipyendo He is fromぃ Is he?? Yeah, is this Muhammad God? or his Son? Yeah, there is a part where he said in a mad 100 submit Not really The Myanmar God New I am not baking Although enthusiastically I will do video That your For us? stepped肚 BTW it's gonna be cool I was staring... And the subtitles for the national level That's everything The national level It's not like I didn't recognize Eternality Mm-hmm I think I'm basically Because of this 1,11 cutter He is Understandably from Board Entrepreneurship It was in grade 3 Boom! Yeah Is this the online exam model? Yes, yes He's been to the wall in the whole Okay, she already done Yeah, only did them, that's right On, uh, Urbanically, or the first-known examination Okay Yeah, that's right I didn't know that I was just supposed to For that ending I was supposed to For it Second round exam In the end, that's right I called you Regarding that And I saw A lot of people call it The Native Russian Yeah Yeah, I'll tell you So I'll tell you This is not going to You're For playing Passions And in four Qualifications Only can participate For the next learning Information Okay But you'll be held A very first week Or then very last week Okay Before that, uh, We are providing One month Transition for Every qualified student Okay Okay Through all links Through all links, uh, It's like, uh, It's not like an all-in-tune, No-only English It's like, uh, Another method We are providing, like, Only one person And only three to four students That's where you're giving an individual Attention for each student Okay Oh, sure Basically, that is basically four You see the fact that Several examinations for that Because necessarily It's really complicated, right? Uh, uh, In India, English and Indian Qualifications Are part of students for that That's right, you're conducting lessons This failed session for a month, right? Okay Through all links, uh, And also, We are providing the shared It's a training from the 90-90 80-cos The Training is not an ending In class, two years ago, students Only, like, Costs, and, or they expand As you know, so many people Six to four years to Ensure that, appearing And become an end-notch And this is the standard for examination and that Training session Okay Okay After the completion of one month One session is that For the further notes That's where goal you? Okay Yeah And also, what is ending? Yeah That's the standard about all of the data All of the Fasten your Head of all of the data No, I haven't The standard of work on them Yeah, yeah, you can Both do our best And everything in that And also, this Like, all of the international Organization and We are providing After-complete notes And in after-cleaning And in the second row of exam There will be a final draw Of the regulations And there will be on March But, that is the final Regum, that is the international round Of the Grammish Okay And also, we are providing for And it's course And also, the National Institute of Education For President also, the National Institute of Education And everything, okay? Yeah, this is a Processing of that And, you know, in the next three Formals, the transition is discussed That say, goal is In the transition, we do On all length of We do the drawing in the Regum, select, Monday to Sunday In this session, or In this session, you can Select up to you Before you add Practically, then So, only one number You are providing Doing three and seven Okay Okay Okay Yeah, and also, one more Think of You are providing One academic No window for you, okay? That's upcoming Mendering Monty, you are So, it is an Exhibit And, I'll show you So, this is The transition And, I'll say, what is Who makes that and what is That? In the domain, you are Telling everything you Be up, take you up? I mean, you are Prepare And, of you, or And, of mother? Okay Yeah, yeah, and also, these The, for example, And also, there was a Discussion process, after Completing the Recession, we've been In the end, the Academic building, or The Shedule and the Mendering, you know, also You're For National Education Okay, Is there any Recession People from that Produstration? Yeah, they Not like In a decision Future, it's For like Academic Mender also Obdimentary for you, and you are Right? And also, that We are providing One thousand Of people, Education, For like Okay For completing the Partial examination, we are Providing one thousand, or For the Education, for like Upcoming Rowing, so for you That in the Spell Session Okay, We are And mom will be Rebelled through this And in Spell You will Don't just do the Seize, so, That that For the Education Is To Dozen-Payang But, from that, Don't have a Beated In from that, Only one thousand Payang To, To, To, To, To, To, To, To, To, To, To, To, To, To, To, To, To, To, Yeah, Yes, Yes, Right To, To, To, To, To, To, To, Ins presente Ah! In with Intent You No So good. Sure, sure, Sure, So, The Both 7 cows Are Conc�ors From No Real School Do the further on you to the back. Sure, sure, thank you, thank you. My name is 30 times, For working my name, My name is Mahabat Mahabat Mahabat. One month. Okay, Okay, Okay, Sure, Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> other new hello and the Hey did you remember that on December 11 when they more to you can not hear my becauseHuh Yeah Yeah Board unconscious more classical But so Okay Yeah, that's right It's not that I was afraid that I was forced for that ending It's not for Second round Examination That's right You're regarding that And I saw More Call it The Native Rossignan Yeah I'll tell you For I'll tell you This is not Tell you For For For For For For For That You Need For For For We And We now We are We are Del aspire Where For More Four Dan For For We Like Only one Back And only three to four Students That We are Deling And Indimagine For Each student. Okay. Not So Basically, that is basically four. You see the fact that For Examination for that because Nestlé It's very Convection Right Okay. Four Lens And also That's Plain Indus We are Following the Certificate Planets From the 90-90 Because The Planets are And Placumids Those Students Only Like For Standard Standard For Standard For Examination And That Okay. After Examination One month Indi That I Indim For The Loads That's For You Okay. Yeah. And also For The The For The For The For The For The So All of the Stays And everything That This Like In other International At the International At the International But That is International Real And Also We are All of the International And also That International And everything Okay Yeah This is A possibility And In the next three Bormons That are International And this That is International And this All And this International And this International And this A possibility And this A possibility A possibility A possibility A possibility Before you Say A possibility Dating Dating Dating Dating Dating Because Yeah And also One more Thing So This is a solution And also What is Who makes that and what is that? In the domain You are telling everything You will be up Take you up I mean, you are Prepare And of you Or I'm up Mother Okay Yeah And also You have An example Feet is And also There was a decision For this How to make a Revisition Within Within the People So Were And Will Dat 2160 ah A one will be That That New Sure Thank you. You</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and small cycle PLM health 10 minutes My My If Yes, and also what is ending? Yeah, that's the end of what all of you are, or the past and your head of what all of you are. No, I haven't. You can both do all of those things and everything in that, and also this like all of the international organization and the operating after completely no signing, after clearing the second or another, there will be a final drop of regulations added beyond much, but that is the final or another, that is international round of the grand mission. Okay, and also the operating for, I mean, it's called policy for education and also the next one is the certificate and everything. Okay. Yeah, this is a procedure that, and you know, if in next week, one month, that implementation will be start, that same goal will be in that implementation will be on all the inside, we can join in the week, and we can select Monday to Sunday, and we could be doing this weekend, the professional weekend, the professional weekend, you can select up to you before you start practicing dining, so only one month will be up already, doing three and seven feet. Okay. Okay. Yeah, and also one more thing, we are promoting one academic window for you, that upcoming member in Monty, you are starting for all of your life, and I'll show you guys for all of this lighting, your education, and I'll say, what is your next step and what is the enrollment you're taking, everything you'll be up to, you know, I mean, you're preparing for your own upper mother. Okay. Yeah, yeah, and also, the example of the first step, and also there was a decision for a second, after coming to the registration, we've been there, the academic building, or not doing that in the schedule, and that academic member, you know, also your monitor, or not doing that. Okay. Is there any registration people from that position? Yeah, they not like the registration fee, it's for like this, academic members also, or elementary for you, and you're a child, and also that we are providing 1,000 with digital education for all of this. Okay. For clearing the first level examination, we are providing 1,000 for the digital education for all of this, upcoming row, so can you go into the registration. Okay. This one, and one will be redeemed to this and in clarification, and you won't just do it the same, so the data won't be 1,000, so it's 2,500, but from that, a number of people will be redeemed from that, only 1,000,000 to the share for the other person. Okay. You understand that? Yeah, yeah, only 1,000,000, and then we are on all the registration fee for all of them, they have an examination or not like that. Okay, examination it, complete the visa. Okay. Yeah, yeah. I just had to be here to watch a number of you daily. Yes, yes, definitely. Oh, I need to be there. Okay. Sure, sure. And there will be one more thing to do today. Before 7pm, we'll go to the registration, we'll go to some next 3,500, the student has got the train registration back, okay. Do the further, okay? Okay. I'll leave it alone. Sure, thank you, thank you. My name is 30 times, I'm working my name, my name is Mahabata Mahabata. Okay. Okay. Okay. Okay. Sure. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3d1c5ac1-bbd1-4c97-bc5e-76d21b3df9a6_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> so Hello Good afternoon, man. Good afternoon. Now, I'm speaking to six stars, parent. Yes. Okay, man, that's a sparrisha calling from the Slaveloning, she's writing a group, man. Okay, man. On October 16th, there was a match for lump-gall examination conducted in Holy Child School. Mama, you have a big examination. Yes. And your child's results are out, man. I also mail you her report card on Sunday, but 11, 11, and she will not come. Did you have a look into it, man? What's this thing in your MM, you too? Man, I just checked it out, but one week ago, I sent you mail, too, man. On that email, right? Yes. Did you have a check on that, man? No, no, no. No problem, man. So, for us, I would want to tell you that this examination, which was conducted, right? It is called a sparrisha in your level examination, man. Okay, which means it is not only from Holy Child School, but from all over India, the parts of the state. All the CBSC and ICACP's had participated in this examination, man. Okay. So, among those, man, very few people have got qualified for the next song, which is a national level, which means your child is going to be representing Haryana and writing this examination on the month of January, towards these months. So, congratulations on that, for three. Okay. Thank you. Yes. The second of all, when we talk about the questions people, Pat and Nam, was it difficult for your child or was it easy, man? Difficult, closely according to the editor. Okay. So, basically, after AB Bika, Hoga, she, Hamaari, was seeing module Khamam, which is critical thinking, logical thinking, and problem solving. So, when we talk about critical thinking, right? Nam, it is completely based on your child's understanding capacity, and when we talk about problem solving, it is completely based on mathematical oriented question now. So, Shastraka's overall presentation, now, was 76 out of the fund. Okay. Okay. Yes. Nam, ye to ask, we, Pat, Hoga, keep us standing, say, eight, standing, so, her, but she, me, is examination, they participate here, Taman. And us, me, said 60 members have got qualified for the holy child school, man. Okay. So, in the preliminary level, there were no proper guidelines given to Shastra from teachers or people, man. For keeping that in our minds, right? More people to 60 people, who have been providing us 11 learning, Mrs. Kolda, prior order thinking skills, man. Okay. Yes. So, our main motive is that, Shastraka, when I am basically understanding, she, she, her critical thinking, her, her logical thinking, her, or a question solving, make her, she, her probability, Hoga, within the given time limit, right? Okay. So, here, in the conception understanding, we teach, so that your child's level is improved, okay. So, Jam very far, we can examination, man. So, we have a module, we have a module, but it's called as logical thinking, man. Okay. In logical thinking, there would be eight skills, and every skills, there would be 10 workouts given to Shastraka to solve, man. So, by end of one month, right, your child would be solving for the plus workout. Okay. Namakobhiye Patahoga, Kipaila's preliminary level, who was a namam, Baha Bashaissaka IQ level checked the Aga Yasa. Okay. So, he, according Nama, on T IQ level, I checked it, he handled the task to, yes, she has aIM we have cleared this, so, her class months month, before F Xiao, he made, that's the, that the A-Chan of Yes, and it's a little bit…. Yes, because I only, yes, since you work here to help me, yes. Yes so basically, at least try an slideshow, it's now around... Yes, so basically, my mother is correct. Two pages with that same number. And at the same time is finally online. So all we need is an organization, we need to hold worship book It will start from elsewhere, Yes.tar as well… Exactly! Okay! So we need to know gradually how much shipping we can achieve in tomorrow, and including an exam is critical But as a parent you also have toату less Because online sessions, what benefits It gets Brendan lot confirmed in B Price If you have a parent, then continue with the program If you have a child, he will have a mother If you have a mother, then you have to have a mother So, you have to have a mother If you have a mother, then you have to have a mother Okay Thank you Yes, and also for a fact now that your child has got 76 right If he is going to be getting about 85% in the national level He is going to be getting a scholarship of 50,000 to 1 lakh educational points Including with a national level certificate on medal V Millega Man Okay So, the first thing that is related to the education of the people is that most of them are opted for Saturday and Sunday classes Because Saturday and Sunday's timing is morning, 11 o'clock, 7 o'clock So, according to your child's time, you can choose one Okay So, as a parent, if you have a baby, then you have to be free So, on Monday and Friday, you can choose two sessions You can choose your according Okay So, in the first class, you have to have 8 teachers Okay 8 teachers who have to have a baby or including with one academic mentor Which means after every session, she would be calling you and guiding various child's lagging or bears, she would be counseling you Okay Okay Okay Yes So, if you have any doubts, then please give me the last comment Because registration is not close to the first 12 o'clock But I will not guarantee you that you will be able to choose one day Because Saturday and Sunday, we are starting with the class Okay I am not saying anything now I am not saying anything now I am not saying anything now I am not saying anything now Yes, yes, no problem We are working on it Anyway, I have started the report on the certificate So, in the next class, I have to call back Yes, I have to call back Yes, I have to call back Yes, I have to call back Yes, my name is Aduh Whatsapp I have to call back the number now Okay Okay, yes, thank you, have a good name Thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12fa2e81-213b-4f87-9a4d-2a183a9b6de4_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تudge up تعيش بعض نقشك تصомت جدا برل living in the sky يعنون يعجب مفتبر ترسلت جدا برل living in the world of school الوصول ترسلت جدا برل living in the sky ترسلت ترسلت جدا برل living in the sky ترسلت جدا برل living in the sky يعجب مفتبر ترسلت جدا برل living in the sky ترسلت جدا برل living in the sky ترسلت جدا برل living in the sky لوما فعلت يعجب Maybe the Canada Trail in the sky&lt;|fo|&gt; ا więن دعوناnamed احباacci نتملmerce وفضح يلوайناがとう وكل أيها cock و Including the 8rada ليس نambolog Television نعم نعم السغير الى العمل الى الموني الداشي ايشح استكاил نефص الىirl ثم ادو Smack ايشح اشف ايشح الاشوه ايصح نعم خاص такое نعم فقط الى العمل اعب تستdioخص سے Dr. زوج meisten تجوح شراع시고 pipelines هل تعاليicarك مع leve trazer مكانا كذلك كذلك الهيان Friend فوق الموضوع بالمعafood وموضع�� iPad الوحيد فوق العيد غ morning ضع like first الرutet وان all Jake mai لقد كنت ولكن ملائف كال Sherman و منا have terrible hiç لست بحرانه لقد كنبي tri وال Syndrome العمل و يا تكي ethical لقد أريد حسنا حسنا حسنا نحن هضية كنة كور white فيوه زساط gesehen كننتهم قد نaczego مخصور幸ر نهبي بعظرinsky صراء من Underground لوشان Benny Dishonters اضيف� مصوم كنت ت mutations متويد شاهص للخزوة مقصوا فنفيذ الجهود الم يفعل فيكل أسغgesch مارشried вз تبس&lt;|pl|&gt; biased تستين bedrooms فتает خارم يجب أن يتوثون عندي كلنا meatsية محصولة انهم فييج أنت أفع selello تريد كم şunu أنه Confederици�krävenاrok ونتقظ مع الميienen لم يтرك فاك Luxury لرد ن maneuه Legends نثة van Gorm evening لذا اللخر لايوجذ ذلك کapolisظCamera عزbud لا عليها لا美味 ذكر هن timelines some examinations بloo Sis SCA Got someDonalds محل mówت في هذا الفرس حاصد تريد و extras Hardy أنه سنوصد تريد you all in debt you all in debt archive لم يأكى لم ي série نitzer أجل يوجد تدرك تطبي أاتبت لو Aquí إزه شاهد</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3d1c5ac1-bbd1-4c97-bc5e-76d21b3df9a6_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but Hello, good afternoon, man. Good afternoon. Now, am I speaking to Shestas parent? Yes. Okay, man, that's a sparrisha calling from the club learning shichaitanya group, man. Okay, man on October 16th, there was a match on lump-garde examination conducted in police child school. Mama, you are a big damn nation. Yes, and your child's results are out now. I also mail you her report card on Sanjay Bhata 1111 and she will not come. Did you have a look into it? What's the thing here? M M? Yes, yes, yes. Did you have a check on that, man? No, no, no. Okay, no problem, man. So, firstly, I would want to tell you that this examination which was conducted right, it has called a sparrisha in your level examination, man. Okay, which means it is not only from both the entire school but from all over India, the parts of the state, all the CBSC and ICACP's had part participated in this examination, man. Okay. So, among those, man, very few people have got qualified for the next song which is the national level, which means your child is going to be representing Haryana and writing this examination on the month of January 3rd, man. So, congratulations on that 4th week. Okay, thank you. Yes. So, second of all, when we talk about the question people, Pat and Nam was it difficult for your child or was it easy, man? Difficult, closely according to the level. Okay. So, basically, after A.B. Bekahoga, he has seen module command which is critical thinking, logical thinking and problem solving. So, when we talk about critical thinking right, man, it is completely based on your child's understanding capacity and when we talk about problem solving, it is completely based on mathematical oriented question. So, Shashra has a overall presentation. Now, that 76 is out of the fund. Okay. Okay. Yes. Nam ye to Aatsubhi Patra will be able to tell that from first standard to each standard, her child participated in this examination and in that most of 60 members have got qualified from Holy Tiles School. Okay. So, in the preliminary level, there were no proper guidelines given to Shashra from Teevutitios or B.S. Holy Pylnams for keeping that in our minds. Right. For the 60 people, they've been providing world one-level learning. This is called a higher order thinking skill, man. Okay. Yes. So, our main motive is that Shashra is basically understanding right. She has critical thinking, her, her logical thinking, her, or a question solving make her, her probability is whole God within the given time limit. Okay. So, here, to understand, your particular conception and understanding is also called there, so that your child's IQ level improves that. Okay. So, January 12th is an examination, man. So, for this, we have a machine, we have a module of your child, which is called a logical thinking, man. Okay. In logical thinking, there would be eight skills and every skills, there would be ten workouts going to Shashra's shoulder-solve, man. So, by end of one month, right, your child would be solving 40 plus work on. Okay. Nam, I also have a question. How about the first preliminary level you had, man. The first Shashra's IQ level checked he had. Okay. So, according to his IQ level, he has a class of advice. So, her class, he has a class of maximum punch for she he had. So, he asked the child about it, so that it be a personal attention or streaming. Okay. Okay. Yes. And it's one of your eight-six months, yes. Okay. So, you have worked, she's going to provide. Uh-huh. Okay. So, basically, man, this class is, right? This is a couple of months, two times, right? And this is completely online. Okay. So, you have first, just work, she's going not to provide. I mean, you have a national level in your class. Okay. Yes. Yes. So, accordingly, the number one month program, we charge 1500 including exam credential. Okay. But as a parent, you have to be a secret rapper. Why? Online session, but say, what is the benefit of it? Or do you think the person who comes to you or does not do it right? So, you have to be a secret. Okay. Okay. Thank you. Yes. Okay. Thank you. Okay. Thank you. Okay. Okay. Thank you. Yes. And also for a fact, now that your child has caught 76, right? If he's going to be getting about 85% in the national level, he's going to be getting a scholarship of 50,000 to one lack educational points, including with a national level certificate on medical beam illegal, man. Okay. But yes, okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Yes. Yes. No problem. Okay. Okay. Okay. Okay. Okay. Okay. Okay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12fa2e81-213b-4f87-9a4d-2a183a9b6de4_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ども متى intakeruckوا وأسيفة بسعorter بسعار literary diesem hone iş Caveerapeutلد الان ل Xian بس Möglichkeit هو ماذا نفهم longer لديو ليست موذلك من الجريativ لان ينجرين أفضل لون Señor على نحن يأتي لك قائنا حعم صلى الله عليه وست cri אז بالن Philippe يقبون المن primeira لم تمكن لتلي ن Pasi لا بيدينا ليخص المن الأج Andrea حجمimo ممةnings حسنا للlength جمxter Jur michonان كو مصور بالبحصة في المن Карطرة و لنسبع新聞 لسالي في الlarınıشtle لامع لي د countersاء يطلقوا طيبujęقدmetros لدي أنك settosexual أفهم than a war 的 لاب�ية من ماتل لامع oscillator ماء القوات يأتي الأ attacker اسمه Section ايا, لأن شيء يأتي ώقößي نر Misshin الصول абnınًا هو Anda وSpaceipper لما اhyukطي لأو راث د монى歐 دram سمالístها اللعة الدивалى نرفح هذه الأنطريفين وال flirtation هو انلكي بال görüşه Yok�� desa Okay كذلكزمشط asynchronous بالغيق الأولاي أوكه أوكه أشنوه أشنوه</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Do you know how to lock further all lines? I get it! I feel her, actually, I feel her!</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Okay!</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ínaİę explain mam ah toTHE TO To Jeakaara</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>039c5420-179e-455f-8240-74d26c044010_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it'em hello, Do Levels afternoon,set Na or Maria tomeavy not candy hello Uh Mama gaudivins,asis parent of Jane mm. learned how tells my Behind the school participatory in the Uh I mixed Hello Hello Hello, Hanji Uh I'm good evening Hanji Hello I'm a major Richard Richard Richard Richard The mount Little Little Little Little Little Little Little Little Little Little Hanji I'm um I believe this week has a recently participated in the Olympiad exam Which what is the lump? Or are you aware about your lumpiad exam? No, ma'am. I'm not afraid of it. Oh, do you want to talk with me? To speak? I know ma'am. I just wanted to talk to you regarding this Papo mentioned father, leather, so full lumpiad. Ok, ma'am, please tell me. Ok, as soon as you are completely fine with English right? Yeah, yeah, I'm coming. Ok, that's a great to know ma'am. Actually ma'am are October 23rd. We have recently conducted a Olympiad exam ma'am In most literal B school. Ok, I believe it belongs to a rough location. So, it's interesting. Yeah, I think that's a great example of classic. Ok, so congratulations ma'am. It's been a long time since I've been to the national round of Olympiad. So, this exam will happen in the month of March. I want to go back to the second week of March. Ok, ok, 23rd. I'm not 23rd, ma'am. March, second week. March, second week. Hello. Once hello. March of healing cinema. Hello. No, ma'am, hi, it's my next year month. It's in the 30th, 30th, 30th, December right? So, in March, you'll be having the Olympiad exam, national level Olympiad exam. So, for the Olympiad exam, it is because we've been shocked to see it from class to stop months later on this month. Ok. So, actually, my name is particular qualities regarding performance in further levels of Olympiad. So, he has performed really well, ma'am, that was a reason he has been shocked to see it. Ok, first of all, very big congratulations. Hi. Yes ma'am. So, ma'am, it's with people about the Olympiad exam. This is not related to any particular subject. It is completely related to you. Like how he's reading, how he's understanding, how he's analyzing, how he's making the patient, how he's doing the character. Hi, you. It is related to overall performance. Yes ma'am, it is completely related to his singing process. His singing process and that is... Ok, ok. And also his brain development, ma'am. Ok. So, this is a little somewhat different, so regular Olympiad exam. So, if you see that regular Olympiad, the moment will be related to some subject, like ma'am, same thing. But this is completely different. Ok. Yes, yes. Yes ma'am. So, ma'am, in this moment, we are used to taking the axles. Yes ma'am. Do we need to take any axles, so that means that any form of me is not anything? Yes ma'am. Obviously you have to enroll ma'am. So I tell you like I'm furthering how to proceed, so how you can enroll for the program and the different time, you can use the details in this class. Ok. Ok. So, ma'am, yes ma'am. So, in this exam, ma'am, because we have learned in school also, ma'am. No ma'am actually, and this first round will be from Coolman. Nationals and final round will be our individual participation from you and the school in ma'am. So, that's for the reason you receive the call from the club, not from the school. Ok. Of course. Yes ma'am. So, I still remember a few students from these class, what shot this segment? Ma'am, students have come to get their enrollments. Ok. So, if you're interested in them, you can also go up for the enrollment service program. Ok. So, if we speak about the Olympia exam, ma'am. So, these compensions of three different skills. These are critical thinking, logical reasoning, and problem solving. Ok. Ok. First one is critical thinking, ma'am. This is his understanding level. So, if you go through any concept in the textbook, how he is reading it, how he is understanding it. So, if there is any comparison point, how he is able to compare it as a topic. So, if you ask him any question, how he is able to conclude you are answered for the question. So, this is what he takes with his critical thinking, ma'am. Ok. So, critical thinking, he is basic understanding level smart. Ok. So, second one is, ma'am, smart. Ma'am, when you are writing a big flow, give me a moment, I'll be giving you a second. I'll be holding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12fa2e81-213b-4f87-9a4d-2a183a9b6de4_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فهو mains الألل في الفرن الرسول أوه في الل lifel في جُعِر الأُنزي注 quasi التبر lamailo صنِّ Essa روح له للسبلي بو نسى أنا ربما تسمع خد elephant الاس sponsي أляется خدroc بين söyleye أستعائمها القريف لر往ي في استحيته يا اراك و أجل انقص الش armored أفعاك هذه العbachى أصول مbal rushed process of ly foot chase الذي الإanhaろう قалت لاجفة بلاثة overão تح Peròها حتى جدا نعلم geil على محظة وankingي this This is not going to party ولذلكبنا بس كامل أحسل المركز في أجلquest واحدة Death Wonderful فحveyard كل أوiberته سِיר المروع gespect to you سبيل أن يريد أن تص Warri شكів لم تسwideHost نور عرض obvious is normal but boughty from sea blacks أو الجواب لما عنك okay نقف for your disadvantage الجائزми اضفى أكف ل MILL go في غيرcjeاء قول Brew هل هم متفيد بتمع العامfare اسمن لدي قول пробوين допاد kilometر talked before تم تكن الفلطة قمت מקوdy قاعدا لدي تنير بعض Daisاؤتظ difficulties لدي تhing Start石腸 من المرحب ماركي روpool في مجاز يستطيع نطlaud نف slaves وكści inverse عاضي او اسف pumps διαدفضة تقيير وك changer رايب لقد zukء الن Manhي حسنا او السو there متعام الى وتلقي لك داخل ليس ف these 11 حسنا ذلك لماذا كنت ؟ delegation isn't that one thousand one thousand حسنا ر Craft夜 الاباسي وبلاد به gigs أيضا ناح Elleور ويجرد في أرة ايير إield as только أبنطني على مقوى determin their إذا كنت حق6 حسنا حسنا وprofسب處 بحلي لا صحنا ثبセ annis النظام حسنا نجاح أنوبص بالنسبة içي حسنا مشوت چلحك وبالعناف Target البلاد تع Denver ediyor ده okayزي بزي عام عام einges قörنا عام نعم نعم عام boost أنا أنا نعم أنا أنت مح況 نعم أنت محض vardı okay سنقmes أفكار</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>uten cele25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Don't do that, mate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> szSarah</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ぐ particle um</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 저는 다음날 Bootle Science-1 떡볶이 열� wür! 뭘… detal 你는  Simmons Isaac Isaac</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>うんうんうんうんうんうん</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> just</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Where are the weg? And Hello. Jesus. At this point is tendency makeup It's ready mate? but yes, did you remember that on the 717 day pt? Oh my goodness I loved this man. Our family andgew Plus ok this ii is the dawn railing on well you see he good are you done yeah only the time that's Ray when you know earlier that the moment thirteen okay yeah that's right regarding that that was a part that was also for that ending that was some for sure second note example that's right and you're regarding that and I saw a lot of more call it the negative procedure yeah i'll tell you for I'll tell you this is there to you or hopefully a full pass from ending for the next okay that you first we call it okay before that we are we are providing one month train station for every call special okay to all length it's like not like an old it's like another method we are only one back and only three to four students that's why we are giving an individual attention for each students okay basically for easy to practice special examinations for that because necessarily it's very complicated like when in India English students train their train station for end of okay and also if that's training the city of Poland the city of Poland is from the 90s because the community is from the beginning the end of the end of the train station okay after the 1 month train station is directly and in both of further roads that's where you are or to all India no I have to be heard about on them please yeah yeah you can both do all the same and everything in that and also this very cold international that is that international international and also we are ready for international international international certificate okay yeah this is a procedure and if you have a preparation you need on all links select Monday to Sunday do this weekend this session you can select up to you before you can you can just do it and you can do it and you can make sure youshirt and what a okay yeah and also these are the examples in your front and also there was a decision for the economic building or not during the you know also your monitor for the decision for the economic and also the operating for the operating for the in the a 0. are I am 30 times more, working my name, my name is Mahabat Mahabat. Okay, okay. Okay, okay, okay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Everybody go on leave the head or coast the third major Moving quick Provisiveness And now Where you mean French TV How do youなる Are you Well, yeah, did you remember that on December 11, I think Okay Me You know, I'm an international pro-classy today. Yeah. Yeah. How? This is the online exam of... Yes, yeah. You're going to read easily. He's been to the online exam. Okay, she's already done. Yeah, only then. That's right. On, uh, politically or the first known examination. Okay, she already done. Yeah, only then. That's right. On, uh, politically or the first known examination. Okay. Yeah, that's right. It's not that there was a pro-classy for that ending. There was some pro-classy for it. Second known examination. Back then, I was already guiding that. And I was so, so I called it. But the negative procedure was... Yeah, I'll tell you something. You're definitely going to tell you. Or, hopefully, a post-message of ending for a political resolution, or they can participate for the next learning examination. Okay. But you'll be held on a primary class week or a day and a little ask you. Okay. Before that, we are, we are, we are providing one month's training session for every political institution. Okay. Okay. Through all links, through all links, uh, it's like, uh, it's not like an all-in-toucher or all-in class. It's like, uh, another method we are providing, like, only one person and only three to four students. That's why we are giving an individual attention for each student. Okay. Not sure. Basically, that is basically four. You see the fact that several examinations for that because necessarily it's really complicated, right? Uh, an India, English, and ending political students are participating for that moment. That's right, you're kind of like an Indian. This failed session for any more students. Okay. Through all links, huh? And also, if that's playing in the field, you're providing the certificate, learning from the 90-90s because, uh, the end of the year, I need to interact with those students only, like, first and or first, first and the students only because, it's the audience who is not appearing and become, and you're not a little bit sick, kind of, for examination and that, training session. Okay. Okay. After the mission of one-one failed, you can immediately directly end the vote of further roles. That's where all you, okay. Yeah. And also, what is ending? Yeah. So, you heard about all of the other, uh, or the past tense, and what all of the other. No, I haven't heard of the vote on them. Yeah. Yeah. You can vote through all of the same energy thinking that, and also, this, like, all of the other international organizations and, uh, you're providing after-completeness, and after-cleaning, and then, like, I'm going to jump there in the end, and then, you can find a role of the organization that is beyond much, but, that is not, find a role of the individual international role of the organization. Okay. And also, we are providing for, uh, and it's called, policy for education for a person and also, uh, next to it is a specific education, okay. Yeah. This is a procedure, uh, and, uh, you're within the three-born winner, that 58 will be taught, which would be verde, and then, you'd be on allays, huh? That will be, immediately, and that will, uh, expand the educational context. And, I know you're the token of, you know, now there's quite a bit of talent in the party, but, uh, before you say, you know, that Kumar пример, earlier holding, a very bright answer, from the beginning at that point. Yeah, and also, one more thing, so we're believing one academic window for you, okay? That upcoming member in monarchy, was served for the human as living, and, uh, so the assigned problem, like, in jurisdiction and, uh, what is your next step and what is the, uh, enrollment you're served, and everything you'll be up to, you know? I mean, you're prepared, and of your order, and of the mother. Okay. Well, come on. Yeah, yeah, and also, these are the nimbus, the most beautiful thing is, and also, they're also the registration process, after coming to the registration. We've been, uh, we've been in the, uh, academic building, or not to regard in the schedule, and that, that, you know, also your monitor, or not to be taken. Okay. Is there any registration people that are going to use this? Yeah. They're not like the registration fee, uh, it's, uh, probably, academic enrollments are obviously for you, and you're at that. And also, that, uh, we are providing, uh, 1,000 of these, um, education scholarships. Okay. For completing the bachelor's examination, we are providing 1,000 for the education scholarship order, upcoming roll-shows and you're adding the spare citizenship. Okay. Okay. This one. A month will be redeemed to this and the education. And you will eventually grow the size, so, that that amount of re-1 month education is 2,500, but, from that, a month is a bit re-deemed from that. Only 1,000,000,000, to the year for the registration scholarship. Okay. Okay. You understand? Yeah, yeah. Only 1 whole month for us, and we are on all the citizenship photo, and we have an examination or not, okay. A examination is completely free. Okay. All right. Yes. Yeah, yeah. I just had to be here to watch if I'm not already made of it. Yes, yes. Different admissions. Oh, I'm in the video. You watched it. Okay. Sure, sure. And everyone, thank you today. Before 7pm, we'll go to the registration, we go to the next pretty one with, the student health, and the training session. That's right. Okay. Beautiful. I'll leave it on there. Sure, sure. Thank you. Thank you. My name is Marhaba. I'm working my name. My name is Marhaba. Marhaba. Okay. Okay. Okay. Okay. Sure. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5% 2.5% 2.5% 2.5% 2.5% 2.5% 2.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somisin Chan, I'm calling for this club landing private limited. This call is regarding which club Olympia?</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a Thanks for Intro</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somersetor and I'm calling for a risk of running private limited. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somersetor and I'm calling for a risk of running private limited. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Subisind Shahan and calling for this company's private limited. This call is regarding hearts and appeared. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Suleysin Johan and I am calling for a wisher running private limited. This call is at your heart, Salam be it. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Subit Singh Chahan and Caughting from Witchcraft Learning Private Limited. This call is regarding hot sun up here. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somersing Johan</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> is submitting to a Han and calling from wish-card learning private limited. This call is regarding Horts Olympiad. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C:/Users/Admin/MY WORK/openai_voice_analytics/Stored Data/audio.wav</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Sumit Singh Johan and I am calling from Vichkar Learning Private Limited. This call is regarding hot Cholampyar. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C:/Users/Admin/MY WORK/openai_voice_analytics/Stored Data/audio.wav</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Sumit Singh Johan and I am calling from Vichkar Learning Private Limited. This call is regarding hot Cholampyar. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> the the the bill as almost office and to to to ke to the number and dollars dollars dollars dollars dollars dollars dollars dollars dollars dollarskle dollars dollars dollars dollars dollars dollars dollars dollars dollar dollars dollars dollars 있거든요 necessary dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars dollars water before that we are providing one month train station for every qualified student through all links, through all links, it's like an old link to use in all links like another method we are providing like only one person and only three to four students that's where you are giving an individual attention for each student okay, basically four you see the fact that several examinations for that because necessarily it's really complicated like in India, English and Indian qualified students are part of the training for that event that's right they are conducting like this failed session for anyone okay four links and also if that's training the field, you are providing the certificate for a 90-90-80 because the training is not anything in class, it's about students only like for a standard they expand the students only because 60-14 years to a standard of training and become an Indian athlete, this is a standard for examination and that training session okay, after the completion of one month train station, you will be directly ending all the further roles that's where goal you, okay yeah, and also what is ending, yeah, that's the main approach all of the data all of the fastening of the field of all India no, I have not heard of what kind of business yeah, you can both do all of the same and everything in that and also this like all of the international organization and the after completing, after completing the second round of exam there will be a final round of examination that will be on March, March and then after completing the third round of exam, that is the international round of examination okay, and also we are providing for, it's called, all of the sheet for education for present also that next round is the certificate in the field, okay yeah, this is a procedure that and you know, if you next week one month train station will be start that say goal you will be in that train station will be on all end so, we see to it in the evening, if you can select Monday to Sunday and you could be free, can be free, can be free, can be free, can be free, can be free you can select up to you before you are tired, but today you can also only one month will be a goal, it will be in three and seven fields okay, okay yeah, and also one more thing, so we are providing one academic window for you guys that are coming in the morning to your side for open as an SVP and also your side for open flight in station and also in what is your next step and what is stuff in the room and your child and everything you will be up to you all I mean you have to prepare and off you all are not a mother okay yeah, yeah, and also, these are the main examples in your front and also there was a registration process after coming to the registration, we've been in the pandemic building or not to regard in the schedule and that government, you know, also your monitor for that situation okay, there is no registration fee for open service yeah, it's not like a registration fee for open service, academic window also obviously for you and your child and also that we are providing 1,000 of people education for us, okay for pleading the fast level examination, we are providing 1,000 or we can go with the education scholarship order, upcoming roll shall be done in this position okay, this one, a mom will be ready to do this in this position and you will be going to the side so that that amount of the 1,000 participation is 2,500 but from that, a lot of people will be ready from that only 1,000,000,000,000 to see for the face, face, and face okay you understand? yeah, yeah, only 1,000,000,000 and then we're on all the registration fee for open service and then we're going to need an examination of North America okay, examination is completely free okay yes I already have a video on my mother in the lady she is just a different patient oh, I need to be there okay, sure sure and there will be one more thing to do today before 7pm, we will go to the decision, we will go to the next pretty one this long time, I think the day in the decision that's right okay, do the further I'll need it, okay? sure sure, thank you, thank you my name is 40 times, I'm working my name, my name is Mahabata, 1 month okay, okay, okay, okay, sure sure, thank you so much</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is Sumit Singh Chahar and calling from the Scalb Running Pair at Limited. This call is regarding hot shell of the earth. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is Swamit Singh Chahun. I am calling from Vishraw Learning Private Limited. This call is regarding Hort Shalom Pya. Thank you. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited. I am calling from Vishraw Learning Private Limited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning. This is Swamit calling from his current learning private limited. This call is regarding Hotsalam Piyat. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\20230411_103127.wav</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning. My name is Swamish Singh Chauhan. I am calling from Wittler-Glaver-Glevitted. This call is regarding Hotshell of Pia. Thank you. I am calling from Wittler-Glevitted. I am calling from Wittler-Glevitted. I am calling from Wittler-Glevitted. I am calling from Wittler-Glevitted. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\20230411_111802.wav</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\20230411_112042.wav</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning, this is from the calling from this club learning coverage and we can't just call it in an ironing heart, so I'm here. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\20230411_120436.wav</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning. My name is Somerseng Johan. I'm calling from Mischkarl and Nick Pagmich Limited. This call is in the Riding Horts of Lampia. Thank you. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning, my name is Somersen Chahun, I am calling from which problem is limited. This call is regarding outside of Biyad. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023-04-11_12-21-59.wav</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning, my name is Sumis Singh Jahan. I'm calling from Wish Club Learning Private Limited. This college is learning heart-solum beer. Thank you. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. I'm calling from Wish Club Learning Private Limited. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023-04-11 12-26-26.wav</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning. This is Somerset Johan calling from his club landing private limiter. This call is regarding Hortsalam VR. Thank you. Okay. Okay. All right. Okay. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right. All right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023-04-11 12-42-17.wav</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning my name is Sumis in Jahan, I am a colonel of this crowd planning private emitter, this hall is running towards Ramya, thank you. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am michael. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. I am a colonel of this crowd planning. you</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning, this call is regarding hearts on a period, my name is Sama Singh Shahan, I am calling for this club learning private and thank you. you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio_2023-04-11_13-23-46.wav</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello good morning this is from the same giant calling from this company I would never get this call is it a riding heart shall I get thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio_2023-04-11_13-24-07.wav</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon. This is from a singer Han calling from his club learning private limited. This call is regarding Hortel Ampere. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio_2023-04-11_13-32-06.wav</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello Good afternoon, this is from the same charade calling home which comes in the private room. This college is adding hot chalampiyat. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio_2023-04-11_13-32-29.wav</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, this is from Sas??? Global Learning Pl scorers This colleagues are quest for ourällam…</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon. This is for the Central Art College of Eastern Learning, Harvard University. This call is regarding... ...Hortzel of B.I. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Stored Data\recorded_audio.wav</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somersetha Raan calling from Bitch Club. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> my name is transition dogs you call from minge glove eating expectations the this and I couldn't read a good feng I know okay the emotions okaynis we least to story theory to you to first time who would you and now and and and and and and and and and when I didn't record and find some interesting things also found some interesting things also and and and and and and and so the I and and I I watch and and and and a community and and a? would for execute you I will put my file in here you will see but there are two way problems where you will be in the audio or wait 16 when we as I second card you will see you will see you will see you will see you will see and . . this is . . the . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio1.wav</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, this is Somerset Johan calling from the Muslim Empire with limited. This call is regarding heart slump yard. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you. Walk on the... this is wishingиниhaon. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_11-09_57_17_PM.wav</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_11-10_11_06_PM.wav</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you so much for your hard reach club.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What is indignation interference? Maryland Kong Hello, Ah misunderstanding. More.... I really do not have my phone band number. stuff like, because, for those recently, there are many and in Telecom for the next level of examination, that is the National level of examination. That's right. Okay, National level is, budget, like, that's what we have at once. We have more than 100,000,000,000,000,000,000,000,000,000,000. I think, maybe, on December 11th already, here, on the, from, the International School of Class A, today, oh, this is it. Yeah, how? Yeah, this is the online examination of the... Yes, yeah, yeah, it's running pretty easily. It's been, it's been, it's been all in, okay, she's already done? Yeah, only then, that's right, on, really clear the first level of examination. Okay. Yeah, that's right, it's running very well, that's right, that's also for that, ending the first level of some fourth level. Second level of examination, that's right, according to your regarding that. And I saw a little more, a little more, according to the, the negative procedure, yeah. Yeah, I'll tell you, I'll tell you, you're definitely there, there, you're hopefully, for some ending four qualified students, only can participate for the next learning examination. Okay. But you'll be held on, for the community, first week, or then, very last year. Okay. Before that, we are, we are providing one month training session for every qualified student. Okay. Okay. Okay. Through online, through online, it's like, it's not like an online, it's like, another method, we are providing, like, only one person, only three to four students, that's why we are giving an individual attention for each student. Okay. Okay. Okay. Okay. Okay. Basically, that is basically four. You see the fact that there's several examinations for that, because this learning is very complicated, right? In India, English students and in qualified students are participating in the same training session for every student. Okay. Four minutes left. And also, if that's the training, the field, you're following the certificate, and it's from the 90-90. And it's because, the, the university has an understanding of the students only, like, for students, or for students, or for students, or because, it's the audience who is not appearing and becoming, and you know, you see the kind of examination and that training session. Okay. Okay. After the examination, one month, the examination is done and then, both are further roles. That's where I call you. Okay. Yeah. And also, what is the name? Yeah. That's the name of the board, all of India, all of the past, and you're here with all of India. No, I haven't. You heard of the board, all of them. Yeah. Yeah. You can both, you are the same and everything in that. And also, this, like, all of the international organizations and, you're following after-completeness, and after-clear goodness, I can go like, there will be a final round of examination, there will be a lot, much, much, that is the final of the finishing round of the examination. Okay. And also, we are providing for, I mean, it's called scholarship for education for President also, next round, so I think it gives them everything. Okay. Yeah. This is a procedure, and, you know, if in the next three moments, the transition will be discussed, that the board will be in the transition, you'll be on all the inside, we'll be doing in the transition, you can select Monday to Sunday, and you could be doing this weekend, this session, or this session, you can select up to you before you're starting for the next day, you can also, only one of the procedures, you're providing, you can create a challenge for you. Okay. Yeah. And also, one more thing, we are providing one academic window for you, that upcoming member in monity you're starting for a person is trying to service, as you are confused in the programs it's ground and that we are providing 1000 of digital education for us. Okay. For clearing the fast-level examination, we are providing 1000 of digital education for us upcoming rounds of the United States system. Okay. This month, a month will be redeemed to this and in clear situation. You will then just draw the face. So, the data will not be 1001.6 in this 2000 500 but from that, 100 of these will be redeemed from that. Only 1000 500 to the default education for this. Okay. You understand? Yeah, yeah. Only one whole month will be redeemed on all the 64-old and yet an examination or not like that. Okay. The examination is completely free. Okay. All right. Yes. Yeah. I just had to be able to watch from the middle of the evening. Yes, it's different. Oh. Oh, I'm in the video. Okay. Sure, sure. And there will be one more thing to do today. Before 7pm, we will consider the decision to go to the next 3D one with the long-term data education. That's it. Okay. Do the further on you, little one. Sure. Thank you. Thank you. My name is Tony Taro. I'm working my name. My name is Mahabata. Mahabata. Okay. Okay. Okay. Okay. Okay. Okay. Thank you. Okay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> again and and Okay. In Statifers all just December 11th, already aired on theodor internationalaboutik加入, GRR O-R aquiYeah he has all the LooOf Uzin is the daughter of a Crystal on Stormfront logo Yes yea... Y Lang has already done What she has already done? Ohh, nice Right now when I immediately shows something like AQ I am like oh can I call it? you still Living here I am in full policy resolution and I can participate for the next learning program mission okay, but you will be held on a community first week or then we will ask you okay, before that we are we are providing one month training session for every policy student okay okay through all links through all links it's like it's not like an all-in-tune all-in-class it's like, another method we are providing like only one person and only three to four students that's why we are giving an individual attention for each student okay awesome basically that is basically four you see the fact that several examinations for that because necessarily it's very complicated like in India, English and Indian policy students are part of training for that that's right, they are part of the training this training session for them okay, four links and also if that's training, the training the certificate training is from 1998 because the training is not anything in class two years ago, students only like pass-stand or say, pass-stand or two-ounce-only because six to 14 years to a month appearing and become an Indian athlete, six kind of examination and that training session okay okay, after the examination of one one training session, you'll be directly ending all the further roles that's where goal you okay yeah, and also what you're ending yeah, that's the thing about all of India, right? all of the pass-stand, you're ahead of what all India no, I haven't you heard of what all of them yeah, yeah, you can both do all of the same and everything in that and also this like all of the international organization and the appolating after completely signing, after clearing the second row of exam, there will be a final round of examination that will be on March, March, that is the final round of examination okay, and also we are believing for it's called scholarship for education for present also, that next semester, so I think it's getting them okay yeah, this is a procedure and you know, in the next three moments that the examination will discuss that shape goal in that examination will be on all links or we see drawing in that we if the examination select Monday to Sunday, any today's pre-recording, the professional pre-recording session, you can select up to you before you're done practicing the examination so only one know we are proving it's doing three and seven three okay okay yeah, and also one one more thing so we are promoting one academic window for you that enroll in monitor your following and and we go and also Confederate I was in conversation and also that we are providing 1,000 of these of educational scholarship okay for pleading the fast-level examination we are providing 1,000 of educational scholarship order upcoming rounds hoping you are spiritual system okay we among will be reviewed through this and in spiritual system we are providing a good for the for the for the for the for the for the for for the for for p p p p p p p p la l a p p c o o o o o e o eu p p p p p p p p p p p</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-10_56_10_PM.wav</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you. coral magic, magenta. bye bye</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_11_42_PM.wav</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Goood peoples, Bowser Koen Jones, Blughan Skerbors fan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_28_25_PM.wav</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This all is at an early hearts of Olympiad. Thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_35_03_PM.wav</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This corn is the dirty heart of the earth. My name is Sohetson Johan. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_41_22_PM.wav</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Akuci style</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_47_49_PM.wav</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_11-11_54_04_PM.wav</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ist consecration i qqalink from this employee brew a traumatic thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-12_29_34_AM.wav</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Suge Sinkja Khan, I'm calling from a regional learning program today. This call is regarding how to learn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-12_50_33_AM.wav</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-12_52_50_AM.wav</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-12_56_43_AM.wav</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somit. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-07_59_06_AM.wav</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning. Today is 12th at 12th, 2022. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-08_48_33_AM.wav</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Morning my name is Somerseng Chahar and I'm calling from Wistler Learning Private Chemical. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_02_38_AM.wav</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello good morning my name is Sumit Singh Chahal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_20_03_AM.wav</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> next time you you will learn Some better you know If you want to learn something then know all of your favorite typing If Tom roulette is nice You know</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_27_32_AM.wav</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_33_08_AM.wav</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thanks. Thanks. сюда</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_42_10_AM.wav</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_42_15_AM.wav</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_44_53_AM.wav</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Ome Tsingja Ha, calling from East Club Learning Private Limited. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_45_01_AM.wav</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_47_52_AM.wav</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-09_50_51_AM.wav</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello good morning my name is Somit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_12-10_37_44_AM.wav</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning my name is Somersink Shahan. I am calling from this club learning private limited. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_12-01_19_47_PM.wav</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ito Lu Lu So Which people Ro As Sp הוא Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn Finn</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_12-03_06_36_PM.wav</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ایک بس اپنے کو تک چاک کرنے کی بسوطر جارا ایک نیجار مارلا را ایک نیارا ایک بس ایک نیر ایک نیارا او ایس کو قانی کرتےار دن لنکتا ارمہ مواز حدیویاتی دیکیی والی تو ہو رئی ابھی دینچھے پے ایے دیکھ ایک اریس ایک بق دینچھے کی تو یہ ہو رئیت کرتے ار دیکھیں اپا کیا آیا سالا آچھے اپنے بہت دیل لگا ایتیسنے لیکن دین ورد میں دیل ساکنی تھے مگر یہ پورک میں نی ستالی ساکنی تھا لیکن وہ تو فائل وپے دائمیگ گو آئے گا پلی اپنے وہ لیکنے تو جیو پاکنی کون پونس کو کورن کرتا کر وریی والا کورد میں نے بھی لکھانیت کے اسلی یہ والی چیز میں رو پلیتگی میں نے جو پور لکھا تو وہ تو بہت سنپل سے کس حرے گو میں نے قادہ کاہل کو اسہ بھنگی نی بل دیسے بل کرنے گلی یہ چیزے کرتے اس نے اصارا کورد گر گا دوری ایسے کر دیو پلے نہیں پڑتا تو دروض سمجھی نہیں آتی چیزیں میں رہا دو سمجھل چھوٹا سا پورد لیکنے گا اس پسہ ری فنشنل کی ہو ری دی بس ہمیں فائل کے نام چیج کر دے تو پیر آئے تھا پیر آئے تھا آئے آئے آئے آئی جیسا کورد گر گا اس پیر آئے تھا دیسیل پر آئے گا اس پیر آئے تھا باگوں دورا پوش کر دوں گا گا اس پیر چیزے باگوں آئے نمکر دوں گا ایگوار پوش کر دوں گا ایک بریر این مجھے گیر این مجھے فروس کے بات کیکی کی اپو پوش کر دوں گا نقائی نرینیس جو زیادہ بھائی دوں گا اس پیر آئے پر شام کو یارات کو جب کوردار کھڑا اگتی مائز اور سیٹل ہو جیگا تا بیک فائنل پوش ماردیں گے دیس میں فائن کورد پوڑا دیگو گا ابیتا یا کہ اگر ملگے گا اگر مجھے بازی پتا لگتے گا ایک بورد پوش ماردیں گے تیرا کوئی کام آئی جو بیٹو کام جس پتا نی اپتورات کو کام کر رہی نہیں کر رہا مجھے پتنٹورات کو کری اپنے گا کل رات کو تو میں ایک کام کر رہا مرگو بجگے دیگ دیگر پوشن تکیئے پر منا کام فیلی میں سوچہ رہتا کال کرو رہتی ہے تو میں مگر پر منا کیا ابی میں اپنے کام کر مضمت طورو اپنے کام کر رو و تسلک پاولی بیٹوی دین میں تو تو میرے ساتھ رہتا یا دین میں دکھا بھی کام نہیں کر در دل آتھیک کام کرتا کیا سوچہی بھئی کامیں تو کر رہتا مرگا کام کر رہتا حرق پتانی وگر بھئے اس کو سندگو سوبہ اُدرنا ہوتا جلی کامی افش جلی سو جاتا ہے کامی ارے افشوتا کاما لگی سکی کاما لگی سکی بیٹوی دین میں بھا دونکہ اور لوکی جلی سکی مرگی افشوتا یا ربدا میں ننا دونک کاملر کی بودی ہیتے اور اپنے سوٹ ایک تو وائن کلر تا ایک مومگیا و لگا کلر تاکیگے تو اُنگا چا لگرہ ہے بات میں اسوچہ رہتا جیو باہن کاملر کی بیٹوی دین میں بھا دونکہ اوزر مگرہ کسیارتے ساٹنی باتے یا ربا دیکھو فوتو برے جنگا او مومگی مزا بھا ککیگی لگرہ ہے اور مومگیا کشپرہ کرنا چیئے یا ربما اُ مومگیا و لگا برمالوں فوتو میکھ ایک چلی کلر از اور موچیس کا فوتا گیا ایک دارکلے کا مومگیا اور بہت سلف چاہ کا بلگوں پتاہی لگرے گی سلف چاہ کا سلف چاہ ایک ہوتا جی جاک بنے گوے ایک ہوتا ایک بھوٹا بھا بنا گوے ایک ہوتا سلف چاہ اواز نہیں آری تھی اور کہنا میں ایک ہوتا سلھ میں ترکوں میں اسوچ کر دیں فوتو جو سلف چاہ کا بھوٹا بہت لائیگتر سے چاہ کا بھوٹے و آپ کو بہت پاس سے دیکھو گے تاہی بطال گے گا رایٹوالا گرینے ایک ایک مجھتے رو بیجرانا و لیفٹو رایٹ دونوی وہا لکل رہ اب ایک تو سلہ دینا بنے تو پتاہی لگتا رایٹوالا گرینے لیفٹوالا وہایم کل رہ آہ آہ قبرہ دیکھا بنوانا ابتو ٹائمی نہیں آتو بارہ طریق ہو گئی ایک رہ جا؟ ایک رہ وائلوانا حنقی وہ کھاکی کل رہتو مگر سلھ بھی ایک ملتا جنتا لکتا ہے نی نی وہ کھاکی براونکل رہتا وہ کھاکی براونکل رہتا با نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھون سنوپ ایدت کیا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی براونکل رہتا ہے نی وہ کھاکی بیم</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Audio_Transcription.xlsx
+++ b/Audio_Transcription.xlsx
@@ -1,48 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>transcribe</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,40 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -378,21 +420,1229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>transcribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somisin Johan, I'm calling from Wish Club Learning Private Limited. Thank you. I'm calling from Wish Club Learning Private Limited. Thank you for watching. you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somersing Chohan, I'm calling from Whiskland Learning Private Limited. Thank you. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Text-2023_04_12-05_10_39_PM.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somerseng John, I'm calling from Wish Club Learning Fire at Limiter. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-05_12_10_PM.wav</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, my name is Johan, thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-05_23_01_PM.wav</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Srishing Johan. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-05_25_07_PM.wav</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Somerseng Chow</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-05_37_06_PM.wav</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> buraklubrightrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_12-06_09_08_PM.wav</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Th snakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello my name is Somersing Chohan, I'm calling from Whiskland Learning Private Limited. Thank you. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited. I'm calling from Whiskland Learning Private Limited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning, my name is Suman Singh Shahan. Thank you. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Good morning, my name is Suman Singh Shahan. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm. Hmm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Somi Singh Johan, I am calling from West Club. Thank you. How u relaxed and doing pattern is short. Sometimes in seven days ur eat understand Tightened Up there Mulh Spiel By home It's big When I came by.... ...I used to fight you lightly But I Talon Some time from the kamar Some traveled down But simply Don't Sometimes At first all this things. Then I tried to see what was passing. A light while I fountain on the bird. The sun within is the other opinion. Furthermore the pilots ran into the post.. Quite nice having you here for continually testing if the 8 encanta can get the ESR, after seven months to visit the Faroite, they are going to take a live through their 떡ia que résumé, ah, Well, first came here, PG to end this That's right and where did BITA do? Did you have BITA? Where did BITA do? NIT? Well, then yes, I knew it but then both were correct and both were NIT then everything was fine and we were 30 years old and we were very young so I was 20 and I didn't understand 2 years of age ah, ah, ah, ah, so you had Oh, I was very young and I was very young and I was very young and I was very young but but but after I was around 200 years old I was very old 3-4 years old ah, I was very young and I was very young and I was very young very young so this is a story this is a story this is a story so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so I so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so so I ask you every if you're a world In there are there are in a ten years you know for me when baking I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you I ask you</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Recording_2023_04_12-10_39_23_PM.wav</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayaira ala'ira served with ya, thank you! Bayaira ala'ira served with ya, thank you! Bayaira ala'ira served with ya, thank you! Bayaira ala'ira served with ya, thank you! Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed. Bayaira resailed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Somi Singh Johan, I am calling from West Club. Thank you. I am not ceilin. Ceilin. I am not ceilin. I am not ceilin. I am not ceilin. I am not ceilin. I am not ceilin. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not. I am not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Somi Singh Johan, I am calling from West Club. Thank you. I am not feeling. Feeling. Feeling is feeling. I am not feeling. . a . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good morning my name is Somit. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Somad thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Swamit. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bujonoswan funigres Terrenyared</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pin��la a cari a performance m应io a charжire impassire</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, with thank you, thank you, this call is regarding which club, name name.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Think the recording button. While pressing the stop recording button. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\audio.wav</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is the cord while the test recording button. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-11_13_42_AM.wav</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pressing stop recording button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-11_22_35_AM.wav</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>あと全体をいいよし</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-12_08_06_PM.wav</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-12_50_47_PM.wav</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> this is afterBye</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-12_53_44_PM.wav</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning. This is my depressing very parting button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-12_58_04_PM.wav</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is the audio while recording what button is pressed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_03_18_PM.wav</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_27_26_PM.wav</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you for watching my name is Subbu Singh Johan. Thank you this god is regarding hardshodom peace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_28_51_PM.wav</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Somersing Chaham and calling for which club learning power is limited. This call is an adding hearts and up here I thank you. This call is an adding hearts and up here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_33_59_PM.wav</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Doctor Room, my name is Sumit, this call is a bloody hot chat up here. And this is the part where I stopped recording button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_39_00_PM.wav</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Where I press that recording button. Thank you. This is where I press the stop recording button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_40_35_PM.wav</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon. This call is regarding heart-to-lump yard. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_42_58_PM.wav</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nu, mai nain onivo, Luo這 I am calling from which lab thank you. Čadickatedo iki a vicioigga data frame. Terminal literal printojara Lik Diamtzalahl disple contore Yara</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_47_33_PM.wav</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Sumis in Chahann and following from Vischkler thank you. Now this board is after recording the stop button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-01_52_00_PM.wav</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon, this call is regarding Hortron P.R. Thank you. Now I have passed the recording modern style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Hello. Hello. Hello. Hello. Are you Oh and This Probably This Yeah, did you remember that on December 11, I think? I I'm not I'm not I'm already I'm Okay, okay, okay. Can I give you a Madonna ring for us, Mom, number? I want this to be because Or Oh Can Uh Living ladies on display on Already dead On the bread I Mini Oh That's right on Relic the first-year examination Yeah, that's right I didn't know that there was a product that was supposed for that ending There was some forces for second-year examination back then I According to your regarding that and I saw a little more calling The native procedure Yeah, I'll tell you something you're definitely I'll tell you For A strong ending for Policeman Solution Participate for the next learning Mission okay, but you Be held on A career What we call Daniel Okay, before that We are Proving We are providing One month Train station For every Policeman Okay All-in All-in It's like It's not like an old-in-toucher old-in-glass Under the Method we are For learning Like only one person Only three to four students That's why we are giving an individual attention for each student Okay Not sure Basically, that is basically four. You see the fact that There's several examinations for that because It's really complicated Like An India, English and ending Policeman students are part of Getting four-dust men and that's why we are providing This failed session for anyone Okay Four-dust men And also If that's the end of the year, we are providing the Certificate Planets for 90 and 90 AD because The End of the year, I need the Student only Costano For example, it's only because It's the Boarding Ends to a That Appearing and Ending And the End of the six-dust men For examination End of the Training session Okay After the Formation of one month Even He will be directly Ending Further Older Older Older Okay Yeah And also Older What is ending Yeah Yet, you had a board all of Together Older Fastenia Head of all India No, I found The Head of all of them Yeah, yeah You can Both through Allah the same and everything in that And also This Like Older International And After-completeness And after-claying And for example, the End of the year And for example, the End of the End of the year And beyond Much Much That is not Final round End of the year And also We are providing For It's called Policy for Education For President Also, that Next week So, I think It's going to be Okay Yeah This is A procedure And You know The next week One month That transition Is discussed That say That transition You need End of We see Toying And we We can select Monday to Sunday And we We can The transition You can Select Up to you Before you start Practicing And also Only one of We are providing It will be 3M Okay Okay Yeah And also One more thing So, we are providing One of The academic Mendo for you That Akavin And the Human Monitoring Apriot And as For Apriot And also Apriot And also Apriot And also Apriot And also Apriot And also Apriot And also Apriot And also Apriot And also We use N-ex-up-of-you-s-par And also There was A decision for Apriot And also We have been We have been And Academic G-N-in Or not You regard In the schedule And The And You know It's Or not You know Okay And And And And And And also That And also And also That And also That We are providing One thousand Of people Education Sparrow Okay For Plurying The Basilar examination We are providing One thousand Of people Education Sparrow Upcoming Rowing So For You Sparrow Again We are providing Two These Curses And You will Sparrow The That And also One One One One One One One One One One One One One One One One One One One One One One One One One One One One One You Keep Keep Keep Keep Keep Keep Keep Keep Keep Hope Be 12 Hope Recharge Homes I Can Good Be 14 Great Good Been Quite Check What 4 Where Tower Get 3 4 3 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-02_34_04_PM.wav</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Somerseng Shaham, this call is regarding God's Anapyat. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-02_43_42_PM.wav</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The moon, my name is Suley Singh Shahan, I am calling for a regional learning pilot and to thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-02_46_28_PM.wav</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, my name is Suresen Johan, I'm calling from Ridge Club. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-02_48_26_PM.wav</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Continued Unction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-02_53_16_PM.wav</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Recallinen ordoug ps Gaulня</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_02_54_PM.wav</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> csania ,indialoolol ,i gear yvp</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_06_23_PM.wav</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon, my name is Somersing Shahanam, calling from Vizch Club. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_13_38_PM.wav</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Buong my name is Somising Johanam Karling from Wish Club. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_21_05_PM.wav</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somersing Johan. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_23_09_PM.wav</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> trunmai nai nai Growst of twins 많 jo Hana gam whom She enjoyable thanks, two</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_27_55_PM.wav</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Terima kasih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_32_05_PM.wav</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Now my name is missing Johanna calling from Viz Club. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_36_02_PM.wav</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...johnur�</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-03_40_47_PM.wav</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, Good afternoon, my name is Somit Singh Johan. This call is regarding Hotsudam Pian. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_06_27_PM.wav</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_07_39_PM.wav</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_48_11_PM.wav</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bye guys thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_49_48_PM.wav</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is Somersintra Khan. I'm calling from the Klonlandling private empty. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_52_33_PM.wav</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Now my name is Subitone Shahan and I am calling from Wishglund and in private limited. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-04_57_13_PM.wav</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somit Singh Shahan and thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_06_00_PM.wav</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, Good afternoon, my name is Somit Singh Johan and calling from which club learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_08_02_PM.wav</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Sumit Singh Jahan. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_19_26_PM.wav</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Summasing Chahar. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_22_36_PM.wav</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The film is so amazing, Johan, calling from which club learning private limited? Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_27_21_PM.wav</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somersing Chahannam Kaurling from Witch Club. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_37_57_PM.wav</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Summissing Shahat and following from Witch Club, thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-05_39_42_PM.wav</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good afternoon my name is from it's in Johan and calling from Vitchkla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\2023_04_13-05_44_49_PM.wav</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5% 1.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_13-06_28_13_PM.wav</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ご視聴ありがとうございました</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-09_11_42_AM.wav</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This call is after passing the stock recording button.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-09_35_32_AM.wav</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salti agli ins yani di soona mitischגם ai cynicali</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-09_38_44_AM.wav</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Somit Singh Johan and calling from Vistula. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-12_05_56_PM.wav</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8. 17. 17. 17. 15. 17. 17. 17. 17. 17. 17. 17. 19. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17. 17.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-12_11_56_PM.wav</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Sumit Singh Shahan. Thank you. Oh the God is not this fine. I do not know how to speak now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-12_18_30_PM.wav</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Solissing Johan and calling through this club.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> e my I know oh I Re threw to her no Yes, I did remember that on December 11, I think more omokingool illiterate what is ill tr饋 that's 22 was ej a 11 already here on the from border international school of class eight right and yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah yeah on uh known examination okay yeah that's right regarding that there was a further process for that ending there was some process for it second known examination that's right according to and I saw a little more called it the negative procedure now yeah I'll tell you for I'll tell you this is a four-person and in four-police rules and participate for the next learning examination okay but you'll be held on a secondary first week or then a little okay before that we are be aware of every qualified student okay through all the it's not like an old-in-toucher or old-in-glass it's like another method we are still learning like only one best and only three-to-four students that's why we are giving an attention for each student okay basically that is basically four you see the fact that there's several examinations for that because necessarily it's very important for students to participate in four-to-four that's why you're making failed session for the next okay four-legged and also if that's where you need to share you're following the certificate plan is from the 90-90 because the plan is not any in black two-year-old students only like a four-to-four ensure that they are appearing and becoming and you know this is the kind of examination and that training session okay okay after that the one-one phase is immediately ending all the roads that's where you are and you're going to have a good all-in-year all-in-year no, I have a good all-in-year no, I have a goodelets you know the bottom yeah, yeah, yeah, you can both two-year-old stay and everything in that and also this like all-in-year international organization and we're believing after-completeness and after-cleaning and after-cleaning and after-cleaning and after-cleaning after-cleaning and after-cleaning and after-cleaning the forget know and after-cleaning we're continuing taking the game and taking the non-disappro cried causing radiation An regression 네,יף DR Delicate arrives Monday to Sunday and you couldn't forget you remove car and there were only one now where leak and 1 more once we open a couple of other four rings summer as he but me alot of Again, this month, a month will be redeemed to this and in clarification, you will then just draw the side. So, the debt of one month of the one month clarification is 2,500, but from that, a thousand of these will be redeemed from that, only 1,500 to the share for the decision for this. Okay. You understand that? Yeah, yeah, only 1,000,000 and then we don't know the decision fee for all in there than a $1,000,000 or $1,000,000. Okay, $1,000,000,000, and then we will be redeemed. Okay. Yeah, yeah. I already have the details you'll watch from the middle of the evening. Yes, yes, definitely. Oh, I mean the bidet. Okay, sure, sure. And there will be one more thing to do today. Before 7pm, we'll go to the decision, we go to the next pretty one with this long time, but the day the decision, that's it. Okay. Do the further on you, the more. Sure, thank you, thank you. My name is Mahabata. Oh, okay. Okay. Okay. Okay. Sure. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0bf019a5-31ce-4ad8-9ffe-771d0a6cb264_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In I know oh, I know yes Well the Tech Hello K dem Wild moron you this is the the one class is the the the the the the the the the the partially and is to Anotherlar through dry overall I will tell you something you are definitely telling you for personal and for the community for the before that we are providing one-month training session for every student for the school for the school for the school for the school for the school for for for highlight advantage for Ukrainian government and foreign and foreign related Teself learning from former interim assailants was now 200 institutions where coronation endless intelligence nationwide Instead of its high-value online infrastructure and also what is ending? Yeah, that's the thing that I bought at all of the years, huh? All the had a good all-in-year. No, I haven't been able to buy a lot of things. Yeah, yeah, you can bought two-hour best things and everything in that and also it's like all-in-year international organization and you're believing after-completely no-failing after-cleaning and after-completely there will be a final drop of agglomeration added beyond much, huh? Much. That is the final legion that is international and also agglomeration. Okay. And also, we are believing for, I mean, it's called policy for education for present-day also, huh? Next, we're thinking of everything. Okay. Yeah. This is a procedure, huh? And, uh, you know, the procedure is position in the position. And also, we are in the position position in the position. You can select Monday to Sunday and it wouldn't be perfectly perfectly perfectly perfectly perfectly perfectly perfectly perfectly perfectly perfectly perfectly perfectly g5 g5 g5 g5 g5 g5 g5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-01_18_59_PM.wav</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Srimish Singh Shahan, I'm calling from which club, thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-03_55_52_PM.wav</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Soe Sink Chahar. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_03_11_PM.wav</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5G 2.5G 2.5G 2.5G 2.5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_11_26_PM.wav</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_13_41_PM.wav</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_17_29_PM.wav</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello good morning my name is Somersing Johan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_22_04_PM.wav</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good morning my name is Somersintra Harp. This call is regarding how to stop here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_24_46_PM.wav</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> upon Easter logdanibr drowning chronic integrity thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics\Stored Data\Recording-2023_04_14-04_27_15_PM.wav</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> good ah group me name is someone saint j khama</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\2023_04_14-05_31_35_PM.wav</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So this is Sanaithaj Than Ha'an calling from vegetable learning product cutest stars regarding what you are trying to talk about before tonight. Thank You. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_14-05_54_38_PM.wav</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon. My name is Somersink Johan. I'm calling from which I've learning private him today. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_14-05_54_38_PM.wav</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon, my name is Suma Singh Jahan and I'm calling from which I'm learning private and I'm going to thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-11_47_53_AM.wav</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-11_58_47_AM.wav</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-12_11_49_PM.wav</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-12_13_30_PM.wav</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-12_17_49_PM.wav</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-01_33_16_PM.wav</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-01_34_08_PM.wav</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-02_08_33_PM.wav</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-02_11_23_PM.wav</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you you you you you you you you you you you you you you you</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-05_41_40_PM.wav</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_15-05_46_49_PM.wav</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Morning, my name is Thomas and I'm calling from which I'll take you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_17-11_08_09_AM.wav</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My name is Somutsu in Japan and calling from this club the Empire which limited. This call is regarding hearts from the earth. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_17-11_16_57_AM.wav</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Critical thinking is analyzing, evaluating and synthesizing information to form a</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\MY WORK\openai_voice_analytics/Stored Data\Recording-2023_04_17-01_10_24_PM.wav</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello, good afternoon, my name is Somersing Shahan and I'm calling from Vichkla. Thank you. You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You You</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>b4de32df-baa2-400b-9c76-b287e277788a_0_r.wav</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Don't leave anything. When you have to say something you do is someone far away We are never times away We're proud of you but you can say Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? Hello? I wish I'm lectured in school at school in Belgium. So you are a little boy in Cambridge? Yes, in Cambridge? Yes, in Cambridge. Yes, in Cambridge. Yes, in Cambridge. From that school, you have qualified for the second level of Cambridge. So, you're a little boy. So, you're a little boy. So, Brody? You're a little boy. You're a little boy. You're a little boy. You're a little boy. Okay, so, I hope you have received the score card and certificate. You have been registered for the first time in your mind. Okay, then. Have a good day. Thank you. Thank you. So, before coming to the performance, I wanted to ask you, have any idea what or why your lady's exam was conducted? A lot of them. Yeah, you have any idea what the lady's exam was conducted? No, sir. No idea. Sir, so, here we have done a level mapping test to check this child IQ level. IQ level, okay. Okay, so, how much is the child able to understand the quantum? Okay, okay. There's on three characters. Critical thinking, logical thinking problem problems. Oh, yes. Oh. Yeah. So, critical thinking is nothing but out which is understanding the concept. Okay. Okay, he has scored three out of nine. Okay. Okay. Logical thinking is nothing but a known concept of ovally put in a word and X, note, or this. Okay. That comes under logical thinking. Yeah, okay. Okay. Okay. This comes from the problem problem. Okay. So, problem problem is nothing but max the question. Okay. Whether it's able to solve any problems or what? Okay. Yeah. Okay. Okay. And the school. Oh, yeah. So, overall, overall he has done a good job, sir. Okay. So, but he may tell more implemented critical thinking. So, critical thinking. So, I think that the child can be able to understand the problem. So, if he's not able to understand the concept, he's memorizing it. First of all, yeah. Okay. Second, if the question patterns or different is not able to answer such kind of questions. Yeah. Okay. Okay. And third, we need to tell more improvement in max. Okay. And third, okay. So, a known concept is not able to explore two others. Okay. So, the next level example will be slightly difficult, sir. 40 questions will be there. 40 per minute time duration will be there. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. Okay. So, class before the exam, class will be there for one month. Online class will be there. Okay. So, in this one month, eight cognitive specials be taught to child. That is very much required to child. Okay. Okay. Okay. Going to further class or acting, the comps can be done. Okay. Okay. Okay. So, the third, then class will happen in Google maker in Google maker. And it's also. Google maker. Google maker. Yeah. Google maker. Okay. And so, after each and every class, ten books will be given. Okay. So, after each and every class, okay. And the following class will happen in Google maker. Okay. So, for the additional community, they put a thousand five hundred. No. Okay. So, we'll share you all the details, sir. Okay. So, once you get your computer, the decision is to be with the screen. Okay. Okay. So, once you get your computer, the decision is to be with the screen, sir. Okay. All good, sir. Thank you, sir. Thank you.</t>
+        </is>
       </c>
     </row>
   </sheetData>
